--- a/Document/sprint_backlog_team3.xlsx
+++ b/Document/sprint_backlog_team3.xlsx
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="422">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -12726,13 +12726,13 @@
                   <c:v>214.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>214.39999999999998</c:v>
+                  <c:v>213.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>214.39999999999998</c:v>
+                  <c:v>213.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.39999999999998</c:v>
+                  <c:v>207.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13290,13 +13290,13 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -13432,7 +13432,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -13539,7 +13539,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -13642,13 +13642,13 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -39483,10 +39483,10 @@
   <dimension ref="A1:V400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39507,7 +39507,7 @@
     <col min="30" max="16384" width="9" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="185" t="s">
         <v>14</v>
       </c>
@@ -39544,7 +39544,7 @@
       <c r="N1" s="184"/>
       <c r="O1" s="184"/>
     </row>
-    <row r="2" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="185"/>
       <c r="B2" s="186"/>
       <c r="C2" s="186"/>
@@ -39573,7 +39573,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="185"/>
       <c r="B3" s="186"/>
       <c r="C3" s="186"/>
@@ -39608,7 +39608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="185"/>
       <c r="B4" s="186"/>
       <c r="C4" s="187"/>
@@ -39632,30 +39632,42 @@
       </c>
       <c r="M4" s="120">
         <f t="shared" ref="M4:O4" si="1">SUM(M5:M396)</f>
-        <v>214.39999999999998</v>
+        <v>213.39999999999998</v>
       </c>
       <c r="N4" s="120">
         <f t="shared" si="1"/>
-        <v>214.39999999999998</v>
+        <v>213.39999999999998</v>
       </c>
       <c r="O4" s="120">
         <f t="shared" si="1"/>
-        <v>209.39999999999998</v>
+        <v>207.39999999999998</v>
       </c>
       <c r="Q4" s="156">
-        <f>SUM(J5:J87)</f>
-        <v>100.39999999999999</v>
+        <f t="shared" ref="Q4:S4" si="2">SUM(J5:J90)</f>
+        <v>106.39999999999999</v>
       </c>
       <c r="R4" s="156">
-        <f>SUM(K5:K87)</f>
-        <v>94.399999999999977</v>
+        <f t="shared" si="2"/>
+        <v>100.39999999999998</v>
       </c>
       <c r="S4" s="156">
-        <f>SUM(L5:L87)</f>
-        <v>74.399999999999977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>78.399999999999977</v>
+      </c>
+      <c r="T4" s="156">
+        <f>SUM(M5:M90)</f>
+        <v>77.399999999999977</v>
+      </c>
+      <c r="U4" s="156">
+        <f t="shared" ref="U4:V4" si="3">SUM(N5:N90)</f>
+        <v>77.399999999999977</v>
+      </c>
+      <c r="V4" s="156">
+        <f t="shared" si="3"/>
+        <v>76.399999999999977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="121">
         <v>1</v>
       </c>
@@ -39664,7 +39676,7 @@
       </c>
       <c r="C5" s="123"/>
       <c r="D5" s="121" t="str">
-        <f t="shared" ref="D5:D86" si="2">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <f t="shared" ref="D5:D86" si="4">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E5" s="124"/>
@@ -39672,7 +39684,7 @@
       <c r="G5" s="125"/>
       <c r="H5" s="125"/>
       <c r="I5" s="121" t="str">
-        <f t="shared" ref="I5:I86" ca="1" si="3">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:O5)),"")</f>
+        <f t="shared" ref="I5:I86" ca="1" si="5">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:O5)),"")</f>
         <v/>
       </c>
       <c r="J5" s="126"/>
@@ -39682,7 +39694,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="126"/>
     </row>
-    <row r="6" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="121">
         <v>2</v>
       </c>
@@ -39693,7 +39705,7 @@
         <v>355</v>
       </c>
       <c r="D6" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E6" s="124"/>
@@ -39707,7 +39719,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J6" s="126">
@@ -39729,14 +39741,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="121">
         <v>3</v>
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="123"/>
       <c r="D7" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E7" s="124"/>
@@ -39744,7 +39756,7 @@
       <c r="G7" s="125"/>
       <c r="H7" s="125"/>
       <c r="I7" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J7" s="126"/>
@@ -39754,7 +39766,7 @@
       <c r="N7" s="126"/>
       <c r="O7" s="126"/>
     </row>
-    <row r="8" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="121">
         <v>4</v>
       </c>
@@ -39763,7 +39775,7 @@
       </c>
       <c r="C8" s="123"/>
       <c r="D8" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E8" s="124"/>
@@ -39771,7 +39783,7 @@
       <c r="G8" s="125"/>
       <c r="H8" s="125"/>
       <c r="I8" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J8" s="126"/>
@@ -39781,7 +39793,7 @@
       <c r="N8" s="126"/>
       <c r="O8" s="126"/>
     </row>
-    <row r="9" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="121">
         <v>5</v>
       </c>
@@ -39792,7 +39804,7 @@
         <v>355</v>
       </c>
       <c r="D9" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E9" s="124"/>
@@ -39806,7 +39818,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J9" s="126">
@@ -39828,7 +39840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="121">
         <v>6</v>
       </c>
@@ -39839,7 +39851,7 @@
         <v>355</v>
       </c>
       <c r="D10" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E10" s="124"/>
@@ -39853,7 +39865,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J10" s="126">
@@ -39875,7 +39887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="121">
         <v>7</v>
       </c>
@@ -39886,7 +39898,7 @@
         <v>402</v>
       </c>
       <c r="D11" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E11" s="124"/>
@@ -39896,7 +39908,7 @@
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J11" s="126">
@@ -39918,7 +39930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="121">
         <v>8</v>
       </c>
@@ -39929,7 +39941,7 @@
         <v>419</v>
       </c>
       <c r="D12" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E12" s="124"/>
@@ -39939,7 +39951,7 @@
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J12" s="125">
@@ -39961,7 +39973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="121">
         <v>9</v>
       </c>
@@ -39972,7 +39984,7 @@
         <v>419</v>
       </c>
       <c r="D13" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E13" s="124"/>
@@ -39982,7 +39994,7 @@
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J13" s="125">
@@ -40004,7 +40016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="121">
         <v>10</v>
       </c>
@@ -40015,7 +40027,7 @@
         <v>419</v>
       </c>
       <c r="D14" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E14" s="124"/>
@@ -40025,7 +40037,7 @@
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J14" s="125">
@@ -40047,7 +40059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="121">
         <v>11</v>
       </c>
@@ -40058,7 +40070,7 @@
         <v>419</v>
       </c>
       <c r="D15" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E15" s="124"/>
@@ -40068,7 +40080,7 @@
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J15" s="125">
@@ -40090,7 +40102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="121">
         <v>12</v>
       </c>
@@ -40101,7 +40113,7 @@
         <v>419</v>
       </c>
       <c r="D16" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E16" s="124"/>
@@ -40111,7 +40123,7 @@
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J16" s="125">
@@ -40144,7 +40156,7 @@
         <v>419</v>
       </c>
       <c r="D17" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E17" s="124"/>
@@ -40154,7 +40166,7 @@
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J17" s="125">
@@ -40187,7 +40199,7 @@
         <v>419</v>
       </c>
       <c r="D18" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E18" s="124"/>
@@ -40197,7 +40209,7 @@
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J18" s="125">
@@ -40230,7 +40242,7 @@
         <v>419</v>
       </c>
       <c r="D19" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E19" s="124"/>
@@ -40240,7 +40252,7 @@
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J19" s="125">
@@ -40273,7 +40285,7 @@
         <v>419</v>
       </c>
       <c r="D20" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E20" s="124"/>
@@ -40283,7 +40295,7 @@
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J20" s="125">
@@ -40316,7 +40328,7 @@
         <v>419</v>
       </c>
       <c r="D21" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E21" s="124"/>
@@ -40326,7 +40338,7 @@
       </c>
       <c r="H21" s="125"/>
       <c r="I21" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J21" s="125">
@@ -40359,7 +40371,7 @@
         <v>419</v>
       </c>
       <c r="D22" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E22" s="124"/>
@@ -40369,7 +40381,7 @@
       </c>
       <c r="H22" s="125"/>
       <c r="I22" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J22" s="125">
@@ -40402,7 +40414,7 @@
         <v>419</v>
       </c>
       <c r="D23" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E23" s="124"/>
@@ -40412,7 +40424,7 @@
       </c>
       <c r="H23" s="125"/>
       <c r="I23" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J23" s="125">
@@ -40445,7 +40457,7 @@
         <v>419</v>
       </c>
       <c r="D24" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E24" s="124"/>
@@ -40455,7 +40467,7 @@
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="J24" s="125">
@@ -40488,7 +40500,7 @@
         <v>421</v>
       </c>
       <c r="D25" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E25" s="124"/>
@@ -40498,7 +40510,7 @@
       </c>
       <c r="H25" s="125"/>
       <c r="I25" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="J25" s="125">
@@ -40527,7 +40539,7 @@
       <c r="B26" s="122"/>
       <c r="C26" s="123"/>
       <c r="D26" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E26" s="124"/>
@@ -40535,7 +40547,7 @@
       <c r="G26" s="125"/>
       <c r="H26" s="125"/>
       <c r="I26" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J26" s="126"/>
@@ -40554,7 +40566,7 @@
       </c>
       <c r="C27" s="123"/>
       <c r="D27" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E27" s="124"/>
@@ -40562,7 +40574,7 @@
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="I27" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J27" s="126"/>
@@ -40581,7 +40593,7 @@
       </c>
       <c r="C28" s="123"/>
       <c r="D28" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E28" s="124"/>
@@ -40589,7 +40601,7 @@
       <c r="G28" s="125"/>
       <c r="H28" s="125"/>
       <c r="I28" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J28" s="126"/>
@@ -40610,7 +40622,7 @@
         <v>336</v>
       </c>
       <c r="D29" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E29" s="124"/>
@@ -40624,7 +40636,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J29" s="126">
@@ -40657,7 +40669,7 @@
         <v>336</v>
       </c>
       <c r="D30" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E30" s="124"/>
@@ -40671,7 +40683,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="126">
@@ -40699,7 +40711,7 @@
       </c>
       <c r="C31" s="123"/>
       <c r="D31" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E31" s="124"/>
@@ -40707,7 +40719,7 @@
       <c r="G31" s="125"/>
       <c r="H31" s="125"/>
       <c r="I31" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J31" s="126"/>
@@ -40726,7 +40738,7 @@
       </c>
       <c r="C32" s="123"/>
       <c r="D32" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E32" s="124"/>
@@ -40734,7 +40746,7 @@
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
       <c r="I32" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J32" s="126"/>
@@ -40755,7 +40767,7 @@
         <v>353</v>
       </c>
       <c r="D33" s="140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E33" s="142"/>
@@ -40765,7 +40777,7 @@
       </c>
       <c r="H33" s="143"/>
       <c r="I33" s="140" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J33" s="144"/>
@@ -40782,7 +40794,7 @@
       <c r="B34" s="122"/>
       <c r="C34" s="123"/>
       <c r="D34" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E34" s="124"/>
@@ -40790,7 +40802,7 @@
       <c r="G34" s="125"/>
       <c r="H34" s="125"/>
       <c r="I34" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J34" s="126"/>
@@ -40809,7 +40821,7 @@
       </c>
       <c r="C35" s="123"/>
       <c r="D35" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E35" s="124"/>
@@ -40817,7 +40829,7 @@
       <c r="G35" s="125"/>
       <c r="H35" s="125"/>
       <c r="I35" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J35" s="126"/>
@@ -40838,7 +40850,7 @@
         <v>352</v>
       </c>
       <c r="D36" s="140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E36" s="142"/>
@@ -40848,7 +40860,7 @@
       </c>
       <c r="H36" s="143"/>
       <c r="I36" s="140" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J36" s="144"/>
@@ -40869,7 +40881,7 @@
         <v>189</v>
       </c>
       <c r="D37" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E37" s="124"/>
@@ -40881,7 +40893,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J37" s="126">
@@ -40914,7 +40926,7 @@
         <v>338</v>
       </c>
       <c r="D38" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E38" s="124">
@@ -40930,7 +40942,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J38" s="126">
@@ -40963,7 +40975,7 @@
         <v>338</v>
       </c>
       <c r="D39" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E39" s="124">
@@ -40979,7 +40991,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" s="126">
@@ -41008,7 +41020,7 @@
       <c r="B40" s="122"/>
       <c r="C40" s="123"/>
       <c r="D40" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E40" s="124"/>
@@ -41016,7 +41028,7 @@
       <c r="G40" s="125"/>
       <c r="H40" s="125"/>
       <c r="I40" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J40" s="126"/>
@@ -41035,7 +41047,7 @@
       </c>
       <c r="C41" s="123"/>
       <c r="D41" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E41" s="124"/>
@@ -41043,7 +41055,7 @@
       <c r="G41" s="125"/>
       <c r="H41" s="125"/>
       <c r="I41" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J41" s="126"/>
@@ -41064,7 +41076,7 @@
         <v>337</v>
       </c>
       <c r="D42" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E42" s="124">
@@ -41078,7 +41090,7 @@
       </c>
       <c r="H42" s="125"/>
       <c r="I42" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J42" s="126">
@@ -41111,7 +41123,7 @@
         <v>189</v>
       </c>
       <c r="D43" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E43" s="124"/>
@@ -41123,7 +41135,7 @@
       </c>
       <c r="H43" s="125"/>
       <c r="I43" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="J43" s="126">
@@ -41156,7 +41168,7 @@
         <v>189</v>
       </c>
       <c r="D44" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E44" s="124"/>
@@ -41168,7 +41180,7 @@
       </c>
       <c r="H44" s="125"/>
       <c r="I44" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.1</v>
       </c>
       <c r="J44" s="126">
@@ -41197,7 +41209,7 @@
       <c r="B45" s="122"/>
       <c r="C45" s="123"/>
       <c r="D45" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E45" s="124"/>
@@ -41205,7 +41217,7 @@
       <c r="G45" s="125"/>
       <c r="H45" s="125"/>
       <c r="I45" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J45" s="126"/>
@@ -41224,7 +41236,7 @@
       </c>
       <c r="C46" s="123"/>
       <c r="D46" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E46" s="124"/>
@@ -41232,7 +41244,7 @@
       <c r="G46" s="125"/>
       <c r="H46" s="125"/>
       <c r="I46" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J46" s="126"/>
@@ -41253,7 +41265,7 @@
         <v>337</v>
       </c>
       <c r="D47" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E47" s="124">
@@ -41267,7 +41279,7 @@
       </c>
       <c r="H47" s="125"/>
       <c r="I47" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J47" s="126">
@@ -41300,7 +41312,7 @@
         <v>189</v>
       </c>
       <c r="D48" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E48" s="124"/>
@@ -41310,7 +41322,7 @@
       </c>
       <c r="H48" s="125"/>
       <c r="I48" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="J48" s="126">
@@ -41339,7 +41351,7 @@
       <c r="B49" s="122"/>
       <c r="C49" s="123"/>
       <c r="D49" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E49" s="124"/>
@@ -41347,7 +41359,7 @@
       <c r="G49" s="125"/>
       <c r="H49" s="125"/>
       <c r="I49" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J49" s="126"/>
@@ -41366,7 +41378,7 @@
       </c>
       <c r="C50" s="123"/>
       <c r="D50" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E50" s="124"/>
@@ -41374,7 +41386,7 @@
       <c r="G50" s="125"/>
       <c r="H50" s="125"/>
       <c r="I50" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J50" s="126"/>
@@ -41395,7 +41407,7 @@
         <v>337</v>
       </c>
       <c r="D51" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E51" s="124">
@@ -41409,7 +41421,7 @@
       </c>
       <c r="H51" s="125"/>
       <c r="I51" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J51" s="126">
@@ -41442,7 +41454,7 @@
         <v>189</v>
       </c>
       <c r="D52" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E52" s="124"/>
@@ -41452,7 +41464,7 @@
       </c>
       <c r="H52" s="125"/>
       <c r="I52" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="J52" s="126">
@@ -41485,7 +41497,7 @@
         <v>400</v>
       </c>
       <c r="D53" s="140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E53" s="142"/>
@@ -41493,7 +41505,7 @@
       <c r="G53" s="143"/>
       <c r="H53" s="143"/>
       <c r="I53" s="140" t="str">
-        <f t="shared" ref="I53:I55" ca="1" si="4">IF(ISBLANK(J53)=FALSE,OFFSET(I53,0,COUNTA(J53:O53)),"")</f>
+        <f t="shared" ref="I53:I55" ca="1" si="6">IF(ISBLANK(J53)=FALSE,OFFSET(I53,0,COUNTA(J53:O53)),"")</f>
         <v/>
       </c>
       <c r="J53" s="144"/>
@@ -41514,7 +41526,7 @@
         <v>400</v>
       </c>
       <c r="D54" s="140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E54" s="142"/>
@@ -41522,7 +41534,7 @@
       <c r="G54" s="143"/>
       <c r="H54" s="143"/>
       <c r="I54" s="140" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J54" s="144"/>
@@ -41539,7 +41551,7 @@
       <c r="B55" s="122"/>
       <c r="C55" s="123"/>
       <c r="D55" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E55" s="124"/>
@@ -41547,7 +41559,7 @@
       <c r="G55" s="125"/>
       <c r="H55" s="125"/>
       <c r="I55" s="121" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J55" s="126"/>
@@ -41564,7 +41576,7 @@
       <c r="B56" s="122"/>
       <c r="C56" s="123"/>
       <c r="D56" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E56" s="124"/>
@@ -41572,7 +41584,7 @@
       <c r="G56" s="125"/>
       <c r="H56" s="125"/>
       <c r="I56" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J56" s="126"/>
@@ -41591,7 +41603,7 @@
       </c>
       <c r="C57" s="123"/>
       <c r="D57" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E57" s="124"/>
@@ -41599,7 +41611,7 @@
       <c r="G57" s="125"/>
       <c r="H57" s="125"/>
       <c r="I57" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J57" s="126"/>
@@ -41618,7 +41630,7 @@
       </c>
       <c r="C58" s="123"/>
       <c r="D58" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E58" s="124"/>
@@ -41626,7 +41638,7 @@
       <c r="G58" s="125"/>
       <c r="H58" s="125"/>
       <c r="I58" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J58" s="126"/>
@@ -41647,7 +41659,7 @@
         <v>339</v>
       </c>
       <c r="D59" s="140" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E59" s="142"/>
@@ -41659,7 +41671,7 @@
       </c>
       <c r="H59" s="143"/>
       <c r="I59" s="140" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J59" s="144"/>
@@ -41680,7 +41692,7 @@
         <v>339</v>
       </c>
       <c r="D60" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E60" s="124"/>
@@ -41692,7 +41704,7 @@
       </c>
       <c r="H60" s="125"/>
       <c r="I60" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J60" s="126">
@@ -41725,7 +41737,7 @@
         <v>339</v>
       </c>
       <c r="D61" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E61" s="124"/>
@@ -41739,7 +41751,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.1</v>
       </c>
       <c r="J61" s="126">
@@ -41772,7 +41784,7 @@
         <v>397</v>
       </c>
       <c r="D62" s="140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E62" s="142"/>
@@ -41782,7 +41794,7 @@
       </c>
       <c r="H62" s="143"/>
       <c r="I62" s="140" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J62" s="144"/>
@@ -41799,7 +41811,7 @@
       <c r="B63" s="122"/>
       <c r="C63" s="123"/>
       <c r="D63" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E63" s="124"/>
@@ -41807,7 +41819,7 @@
       <c r="G63" s="125"/>
       <c r="H63" s="125"/>
       <c r="I63" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J63" s="126"/>
@@ -41826,7 +41838,7 @@
       </c>
       <c r="C64" s="123"/>
       <c r="D64" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E64" s="124"/>
@@ -41834,7 +41846,7 @@
       <c r="G64" s="125"/>
       <c r="H64" s="125"/>
       <c r="I64" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J64" s="126"/>
@@ -41855,8 +41867,8 @@
         <v>353</v>
       </c>
       <c r="D65" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>完了</v>
       </c>
       <c r="E65" s="124"/>
       <c r="F65" s="124">
@@ -41869,8 +41881,8 @@
         <v>1</v>
       </c>
       <c r="I65" s="121">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J65" s="126">
         <v>2</v>
@@ -41888,7 +41900,7 @@
         <v>1</v>
       </c>
       <c r="O65" s="126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
@@ -41902,7 +41914,7 @@
         <v>340</v>
       </c>
       <c r="D66" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E66" s="124"/>
@@ -41912,7 +41924,7 @@
       </c>
       <c r="H66" s="125"/>
       <c r="I66" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J66" s="126">
@@ -41941,7 +41953,7 @@
       <c r="B67" s="122"/>
       <c r="C67" s="123"/>
       <c r="D67" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E67" s="124"/>
@@ -41949,7 +41961,7 @@
       <c r="G67" s="125"/>
       <c r="H67" s="125"/>
       <c r="I67" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J67" s="126"/>
@@ -41968,7 +41980,7 @@
       </c>
       <c r="C68" s="123"/>
       <c r="D68" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E68" s="124"/>
@@ -41976,7 +41988,7 @@
       <c r="G68" s="125"/>
       <c r="H68" s="125"/>
       <c r="I68" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J68" s="126"/>
@@ -41997,7 +42009,7 @@
         <v>336</v>
       </c>
       <c r="D69" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E69" s="124"/>
@@ -42009,7 +42021,7 @@
       </c>
       <c r="H69" s="125"/>
       <c r="I69" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J69" s="126">
@@ -42042,7 +42054,7 @@
         <v>336</v>
       </c>
       <c r="D70" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E70" s="124"/>
@@ -42054,7 +42066,7 @@
       </c>
       <c r="H70" s="125"/>
       <c r="I70" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J70" s="126">
@@ -42087,7 +42099,7 @@
         <v>336</v>
       </c>
       <c r="D71" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E71" s="124"/>
@@ -42099,7 +42111,7 @@
       </c>
       <c r="H71" s="125"/>
       <c r="I71" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J71" s="126">
@@ -42132,7 +42144,7 @@
         <v>336</v>
       </c>
       <c r="D72" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E72" s="124">
@@ -42146,7 +42158,7 @@
       </c>
       <c r="H72" s="125"/>
       <c r="I72" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J72" s="126">
@@ -42179,7 +42191,7 @@
         <v>336</v>
       </c>
       <c r="D73" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E73" s="124">
@@ -42193,7 +42205,7 @@
       </c>
       <c r="H73" s="125"/>
       <c r="I73" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J73" s="126">
@@ -42226,7 +42238,7 @@
         <v>336</v>
       </c>
       <c r="D74" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E74" s="124">
@@ -42240,7 +42252,7 @@
       </c>
       <c r="H74" s="125"/>
       <c r="I74" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J74" s="126">
@@ -42269,7 +42281,7 @@
       <c r="B75" s="122"/>
       <c r="C75" s="123"/>
       <c r="D75" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E75" s="124"/>
@@ -42277,7 +42289,7 @@
       <c r="G75" s="125"/>
       <c r="H75" s="125"/>
       <c r="I75" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J75" s="126"/>
@@ -42296,7 +42308,7 @@
       </c>
       <c r="C76" s="123"/>
       <c r="D76" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E76" s="124"/>
@@ -42304,7 +42316,7 @@
       <c r="G76" s="125"/>
       <c r="H76" s="125"/>
       <c r="I76" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J76" s="126"/>
@@ -42325,7 +42337,7 @@
         <v>351</v>
       </c>
       <c r="D77" s="140" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E77" s="142"/>
@@ -42337,7 +42349,7 @@
       </c>
       <c r="H77" s="143"/>
       <c r="I77" s="140" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J77" s="144"/>
@@ -42354,7 +42366,7 @@
       <c r="B78" s="122"/>
       <c r="C78" s="123"/>
       <c r="D78" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E78" s="124"/>
@@ -42362,7 +42374,7 @@
       <c r="G78" s="125"/>
       <c r="H78" s="125"/>
       <c r="I78" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J78" s="126"/>
@@ -42381,7 +42393,7 @@
       </c>
       <c r="C79" s="123"/>
       <c r="D79" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E79" s="124"/>
@@ -42389,7 +42401,7 @@
       <c r="G79" s="125"/>
       <c r="H79" s="125"/>
       <c r="I79" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J79" s="126"/>
@@ -42410,7 +42422,7 @@
         <v>353</v>
       </c>
       <c r="D80" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E80" s="124"/>
@@ -42424,7 +42436,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.1</v>
       </c>
       <c r="J80" s="126">
@@ -42457,7 +42469,7 @@
         <v>354</v>
       </c>
       <c r="D81" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="E81" s="124">
@@ -42471,7 +42483,7 @@
       </c>
       <c r="H81" s="125"/>
       <c r="I81" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J81" s="126">
@@ -42504,7 +42516,7 @@
         <v>353</v>
       </c>
       <c r="D82" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E82" s="124"/>
@@ -42516,7 +42528,7 @@
       </c>
       <c r="H82" s="125"/>
       <c r="I82" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="J82" s="126">
@@ -42545,7 +42557,7 @@
       <c r="B83" s="122"/>
       <c r="C83" s="123"/>
       <c r="D83" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E83" s="124"/>
@@ -42553,7 +42565,7 @@
       <c r="G83" s="125"/>
       <c r="H83" s="125"/>
       <c r="I83" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J83" s="126"/>
@@ -42570,7 +42582,7 @@
       <c r="B84" s="122"/>
       <c r="C84" s="123"/>
       <c r="D84" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E84" s="124"/>
@@ -42578,7 +42590,7 @@
       <c r="G84" s="125"/>
       <c r="H84" s="125"/>
       <c r="I84" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J84" s="126"/>
@@ -42597,7 +42609,7 @@
       </c>
       <c r="C85" s="123"/>
       <c r="D85" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E85" s="124"/>
@@ -42605,7 +42617,7 @@
       <c r="G85" s="125"/>
       <c r="H85" s="125"/>
       <c r="I85" s="121" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="J85" s="126"/>
@@ -42626,7 +42638,7 @@
         <v>355</v>
       </c>
       <c r="D86" s="121" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="E86" s="124"/>
@@ -42638,7 +42650,7 @@
       </c>
       <c r="H86" s="125"/>
       <c r="I86" s="121">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="J86" s="126">
@@ -42671,7 +42683,7 @@
         <v>351</v>
       </c>
       <c r="D87" s="121" t="str">
-        <f t="shared" ref="D87:D153" ca="1" si="5">IF(ISBLANK($B87),"",IF(ISBLANK($F87),"未着手",IF($I87=0,"完了","作業中")))</f>
+        <f t="shared" ref="D87:D153" ca="1" si="7">IF(ISBLANK($B87),"",IF(ISBLANK($F87),"未着手",IF($I87=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="E87" s="124"/>
@@ -42683,7 +42695,7 @@
       </c>
       <c r="H87" s="125"/>
       <c r="I87" s="121">
-        <f t="shared" ref="I87:I153" ca="1" si="6">IF(ISBLANK(J87)=FALSE,OFFSET(I87,0,COUNTA(J87:O87)),"")</f>
+        <f t="shared" ref="I87:I153" ca="1" si="8">IF(ISBLANK(J87)=FALSE,OFFSET(I87,0,COUNTA(J87:O87)),"")</f>
         <v>0.1</v>
       </c>
       <c r="J87" s="126">
@@ -42712,7 +42724,7 @@
       <c r="B88" s="122"/>
       <c r="C88" s="123"/>
       <c r="D88" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E88" s="124"/>
@@ -42720,7 +42732,7 @@
       <c r="G88" s="125"/>
       <c r="H88" s="125"/>
       <c r="I88" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J88" s="126"/>
@@ -42739,7 +42751,7 @@
       </c>
       <c r="C89" s="123"/>
       <c r="D89" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E89" s="124"/>
@@ -42747,7 +42759,7 @@
       <c r="G89" s="125"/>
       <c r="H89" s="125"/>
       <c r="I89" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J89" s="126"/>
@@ -42764,9 +42776,11 @@
       <c r="B90" s="122" t="s">
         <v>405</v>
       </c>
-      <c r="C90" s="123"/>
+      <c r="C90" s="123" t="s">
+        <v>419</v>
+      </c>
       <c r="D90" s="121" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="E90" s="124"/>
@@ -42780,8 +42794,8 @@
         <v>2</v>
       </c>
       <c r="I90" s="121">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="J90" s="126">
         <v>6</v>
@@ -42793,13 +42807,13 @@
         <v>4</v>
       </c>
       <c r="M90" s="126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N90" s="126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O90" s="126">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
@@ -42809,7 +42823,7 @@
       <c r="B91" s="122"/>
       <c r="C91" s="123"/>
       <c r="D91" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E91" s="124"/>
@@ -42817,7 +42831,7 @@
       <c r="G91" s="125"/>
       <c r="H91" s="125"/>
       <c r="I91" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J91" s="126"/>
@@ -42834,7 +42848,7 @@
       <c r="B92" s="122"/>
       <c r="C92" s="123"/>
       <c r="D92" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E92" s="124"/>
@@ -42842,7 +42856,7 @@
       <c r="G92" s="125"/>
       <c r="H92" s="125"/>
       <c r="I92" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J92" s="126"/>
@@ -42861,7 +42875,7 @@
       </c>
       <c r="C93" s="123"/>
       <c r="D93" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E93" s="124"/>
@@ -42869,7 +42883,7 @@
       <c r="G93" s="125"/>
       <c r="H93" s="125"/>
       <c r="I93" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J93" s="126"/>
@@ -42888,7 +42902,7 @@
       </c>
       <c r="C94" s="123"/>
       <c r="D94" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E94" s="124"/>
@@ -42896,7 +42910,7 @@
       <c r="G94" s="125"/>
       <c r="H94" s="125"/>
       <c r="I94" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J94" s="126"/>
@@ -42917,7 +42931,7 @@
         <v>338</v>
       </c>
       <c r="D95" s="121" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="E95" s="124">
@@ -42933,7 +42947,7 @@
         <v>2</v>
       </c>
       <c r="I95" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="J95" s="125">
@@ -42966,7 +42980,7 @@
         <v>338</v>
       </c>
       <c r="D96" s="121" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="E96" s="124">
@@ -42982,7 +42996,7 @@
         <v>2</v>
       </c>
       <c r="I96" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="J96" s="125">
@@ -43015,7 +43029,7 @@
         <v>338</v>
       </c>
       <c r="D97" s="121" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="E97" s="124">
@@ -43031,7 +43045,7 @@
         <v>2</v>
       </c>
       <c r="I97" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="J97" s="125">
@@ -43064,7 +43078,7 @@
         <v>338</v>
       </c>
       <c r="D98" s="121" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="E98" s="124">
@@ -43080,7 +43094,7 @@
         <v>2</v>
       </c>
       <c r="I98" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="J98" s="125">
@@ -43109,7 +43123,7 @@
       <c r="B99" s="122"/>
       <c r="C99" s="123"/>
       <c r="D99" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E99" s="124"/>
@@ -43117,7 +43131,7 @@
       <c r="G99" s="125"/>
       <c r="H99" s="125"/>
       <c r="I99" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J99" s="126"/>
@@ -43138,7 +43152,7 @@
         <v>338</v>
       </c>
       <c r="D100" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E100" s="124"/>
@@ -43146,7 +43160,7 @@
       <c r="G100" s="125"/>
       <c r="H100" s="125"/>
       <c r="I100" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J100" s="126"/>
@@ -43167,7 +43181,7 @@
         <v>338</v>
       </c>
       <c r="D101" s="121" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="E101" s="124">
@@ -43183,7 +43197,7 @@
         <v>4</v>
       </c>
       <c r="I101" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2.5</v>
       </c>
       <c r="J101" s="125">
@@ -43216,7 +43230,7 @@
         <v>338</v>
       </c>
       <c r="D102" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E102" s="124"/>
@@ -43226,7 +43240,7 @@
       </c>
       <c r="H102" s="125"/>
       <c r="I102" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
       <c r="J102" s="125">
@@ -43259,7 +43273,7 @@
         <v>338</v>
       </c>
       <c r="D103" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E103" s="124"/>
@@ -43269,7 +43283,7 @@
       </c>
       <c r="H103" s="125"/>
       <c r="I103" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J103" s="125"/>
@@ -43290,7 +43304,7 @@
         <v>338</v>
       </c>
       <c r="D104" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E104" s="124"/>
@@ -43300,7 +43314,7 @@
       </c>
       <c r="H104" s="125"/>
       <c r="I104" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J104" s="125"/>
@@ -43317,7 +43331,7 @@
       <c r="B105" s="122"/>
       <c r="C105" s="123"/>
       <c r="D105" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E105" s="124"/>
@@ -43325,7 +43339,7 @@
       <c r="G105" s="125"/>
       <c r="H105" s="125"/>
       <c r="I105" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J105" s="125"/>
@@ -43346,7 +43360,7 @@
         <v>338</v>
       </c>
       <c r="D106" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E106" s="124"/>
@@ -43356,7 +43370,7 @@
       </c>
       <c r="H106" s="125"/>
       <c r="I106" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="J106" s="125">
@@ -43389,7 +43403,7 @@
         <v>338</v>
       </c>
       <c r="D107" s="121" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="E107" s="124"/>
@@ -43401,7 +43415,7 @@
       </c>
       <c r="H107" s="125"/>
       <c r="I107" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J107" s="125">
@@ -43434,7 +43448,7 @@
         <v>338</v>
       </c>
       <c r="D108" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E108" s="124"/>
@@ -43444,7 +43458,7 @@
       </c>
       <c r="H108" s="125"/>
       <c r="I108" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J108" s="125">
@@ -43477,7 +43491,7 @@
         <v>338</v>
       </c>
       <c r="D109" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E109" s="124"/>
@@ -43487,7 +43501,7 @@
       </c>
       <c r="H109" s="125"/>
       <c r="I109" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J109" s="125">
@@ -43520,7 +43534,7 @@
         <v>338</v>
       </c>
       <c r="D110" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E110" s="124"/>
@@ -43530,7 +43544,7 @@
       </c>
       <c r="H110" s="125"/>
       <c r="I110" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J110" s="125"/>
@@ -43551,7 +43565,7 @@
         <v>338</v>
       </c>
       <c r="D111" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E111" s="124"/>
@@ -43561,7 +43575,7 @@
       </c>
       <c r="H111" s="125"/>
       <c r="I111" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J111" s="125"/>
@@ -43578,7 +43592,7 @@
       <c r="B112" s="122"/>
       <c r="C112" s="123"/>
       <c r="D112" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E112" s="124"/>
@@ -43586,7 +43600,7 @@
       <c r="G112" s="125"/>
       <c r="H112" s="125"/>
       <c r="I112" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J112" s="126"/>
@@ -43603,7 +43617,7 @@
       <c r="B113" s="122"/>
       <c r="C113" s="123"/>
       <c r="D113" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E113" s="124"/>
@@ -43611,7 +43625,7 @@
       <c r="G113" s="125"/>
       <c r="H113" s="125"/>
       <c r="I113" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J113" s="126"/>
@@ -43630,7 +43644,7 @@
       </c>
       <c r="C114" s="123"/>
       <c r="D114" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E114" s="124"/>
@@ -43638,7 +43652,7 @@
       <c r="G114" s="125"/>
       <c r="H114" s="125"/>
       <c r="I114" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J114" s="126"/>
@@ -43657,7 +43671,7 @@
       </c>
       <c r="C115" s="123"/>
       <c r="D115" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E115" s="124"/>
@@ -43665,7 +43679,7 @@
       <c r="G115" s="125"/>
       <c r="H115" s="125"/>
       <c r="I115" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J115" s="126"/>
@@ -43686,7 +43700,7 @@
         <v>341</v>
       </c>
       <c r="D116" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E116" s="124"/>
@@ -43694,7 +43708,7 @@
       <c r="G116" s="125"/>
       <c r="H116" s="125"/>
       <c r="I116" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J116" s="126"/>
@@ -43711,7 +43725,7 @@
       <c r="B117" s="122"/>
       <c r="C117" s="123"/>
       <c r="D117" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E117" s="124"/>
@@ -43719,7 +43733,7 @@
       <c r="G117" s="125"/>
       <c r="H117" s="125"/>
       <c r="I117" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J117" s="126"/>
@@ -43738,7 +43752,7 @@
       </c>
       <c r="C118" s="123"/>
       <c r="D118" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E118" s="124"/>
@@ -43746,7 +43760,7 @@
       <c r="G118" s="125"/>
       <c r="H118" s="125"/>
       <c r="I118" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J118" s="126"/>
@@ -43767,7 +43781,7 @@
         <v>341</v>
       </c>
       <c r="D119" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E119" s="124"/>
@@ -43775,7 +43789,7 @@
       <c r="G119" s="125"/>
       <c r="H119" s="125"/>
       <c r="I119" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J119" s="126"/>
@@ -43796,7 +43810,7 @@
         <v>338</v>
       </c>
       <c r="D120" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E120" s="124"/>
@@ -43806,7 +43820,7 @@
       </c>
       <c r="H120" s="125"/>
       <c r="I120" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="J120" s="125">
@@ -43839,7 +43853,7 @@
         <v>338</v>
       </c>
       <c r="D121" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E121" s="124"/>
@@ -43849,7 +43863,7 @@
       </c>
       <c r="H121" s="125"/>
       <c r="I121" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J121" s="125">
@@ -43882,7 +43896,7 @@
         <v>338</v>
       </c>
       <c r="D122" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E122" s="124"/>
@@ -43892,7 +43906,7 @@
       </c>
       <c r="H122" s="125"/>
       <c r="I122" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J122" s="125">
@@ -43925,7 +43939,7 @@
         <v>338</v>
       </c>
       <c r="D123" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E123" s="124"/>
@@ -43935,7 +43949,7 @@
       </c>
       <c r="H123" s="125"/>
       <c r="I123" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J123" s="125">
@@ -43968,7 +43982,7 @@
         <v>338</v>
       </c>
       <c r="D124" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E124" s="124"/>
@@ -43978,7 +43992,7 @@
       </c>
       <c r="H124" s="125"/>
       <c r="I124" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="J124" s="125">
@@ -44011,7 +44025,7 @@
         <v>338</v>
       </c>
       <c r="D125" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E125" s="124"/>
@@ -44021,7 +44035,7 @@
       </c>
       <c r="H125" s="125"/>
       <c r="I125" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J125" s="125"/>
@@ -44038,7 +44052,7 @@
       <c r="B126" s="122"/>
       <c r="C126" s="123"/>
       <c r="D126" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E126" s="124"/>
@@ -44046,7 +44060,7 @@
       <c r="G126" s="125"/>
       <c r="H126" s="125"/>
       <c r="I126" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J126" s="126"/>
@@ -44065,7 +44079,7 @@
       </c>
       <c r="C127" s="123"/>
       <c r="D127" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E127" s="124"/>
@@ -44073,7 +44087,7 @@
       <c r="G127" s="125"/>
       <c r="H127" s="125"/>
       <c r="I127" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J127" s="126"/>
@@ -44094,7 +44108,7 @@
         <v>338</v>
       </c>
       <c r="D128" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E128" s="124"/>
@@ -44104,7 +44118,7 @@
       </c>
       <c r="H128" s="125"/>
       <c r="I128" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="J128" s="125">
@@ -44137,7 +44151,7 @@
         <v>341</v>
       </c>
       <c r="D129" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E129" s="124"/>
@@ -44147,7 +44161,7 @@
       </c>
       <c r="H129" s="125"/>
       <c r="I129" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="J129" s="125">
@@ -44180,7 +44194,7 @@
         <v>338</v>
       </c>
       <c r="D130" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E130" s="124"/>
@@ -44190,7 +44204,7 @@
       </c>
       <c r="H130" s="125"/>
       <c r="I130" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.5</v>
       </c>
       <c r="J130" s="125">
@@ -44223,7 +44237,7 @@
         <v>338</v>
       </c>
       <c r="D131" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E131" s="124"/>
@@ -44233,7 +44247,7 @@
       </c>
       <c r="H131" s="125"/>
       <c r="I131" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.5</v>
       </c>
       <c r="J131" s="125">
@@ -44266,7 +44280,7 @@
         <v>338</v>
       </c>
       <c r="D132" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E132" s="124"/>
@@ -44276,7 +44290,7 @@
       </c>
       <c r="H132" s="125"/>
       <c r="I132" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.5</v>
       </c>
       <c r="J132" s="125">
@@ -44309,7 +44323,7 @@
         <v>338</v>
       </c>
       <c r="D133" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E133" s="124"/>
@@ -44319,7 +44333,7 @@
       </c>
       <c r="H133" s="125"/>
       <c r="I133" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.5</v>
       </c>
       <c r="J133" s="125">
@@ -44370,7 +44384,7 @@
         <v>338</v>
       </c>
       <c r="D134" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E134" s="124"/>
@@ -44380,7 +44394,7 @@
       </c>
       <c r="H134" s="125"/>
       <c r="I134" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1.5</v>
       </c>
       <c r="J134" s="125">
@@ -44405,15 +44419,15 @@
         <v>351</v>
       </c>
       <c r="R134" s="134">
-        <f t="shared" ref="R134:R142" si="7">SUMIF($C$5:$C$260,Q134,$G$5:$G$260)</f>
+        <f t="shared" ref="R134:R142" si="9">SUMIF($C$5:$C$260,Q134,$G$5:$G$260)</f>
         <v>37</v>
       </c>
       <c r="S134" s="134">
-        <f t="shared" ref="S134:S141" ca="1" si="8">SUMIF($C$5:$C$260,Q134,$I$5:$I$260)</f>
+        <f t="shared" ref="S134:S141" ca="1" si="10">SUMIF($C$5:$C$260,Q134,$I$5:$I$260)</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="T134" s="134">
-        <f t="shared" ref="T134:T142" si="9">SUMIF($C$5:$C$260,Q134,$H$5:$H$260)</f>
+        <f t="shared" ref="T134:T142" si="11">SUMIF($C$5:$C$260,Q134,$H$5:$H$260)</f>
         <v>2</v>
       </c>
       <c r="U134" s="135">
@@ -44432,7 +44446,7 @@
       <c r="B135" s="122"/>
       <c r="C135" s="123"/>
       <c r="D135" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E135" s="124"/>
@@ -44440,7 +44454,7 @@
       <c r="G135" s="125"/>
       <c r="H135" s="125"/>
       <c r="I135" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J135" s="125"/>
@@ -44453,23 +44467,23 @@
         <v>361</v>
       </c>
       <c r="R135" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>197.5</v>
       </c>
       <c r="S135" s="134">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>123</v>
       </c>
       <c r="T135" s="134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="U135" s="135">
-        <f t="shared" ref="U135:U142" si="10">COUNTA($J$2:$O$2)*6-COUNTA($J$4:$O$4)*6</f>
+        <f t="shared" ref="U135:U142" si="12">COUNTA($J$2:$O$2)*6-COUNTA($J$4:$O$4)*6</f>
         <v>0</v>
       </c>
       <c r="V135" s="136">
-        <f t="shared" ref="V135:V142" ca="1" si="11">IF(U135&gt;S135,0,S135-U135)</f>
+        <f t="shared" ref="V135:V142" ca="1" si="13">IF(U135&gt;S135,0,S135-U135)</f>
         <v>123</v>
       </c>
     </row>
@@ -44482,7 +44496,7 @@
       </c>
       <c r="C136" s="123"/>
       <c r="D136" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E136" s="124"/>
@@ -44490,7 +44504,7 @@
       <c r="G136" s="125"/>
       <c r="H136" s="125"/>
       <c r="I136" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J136" s="125"/>
@@ -44503,24 +44517,24 @@
         <v>353</v>
       </c>
       <c r="R136" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="S136" s="134">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.2</v>
       </c>
       <c r="T136" s="134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="U136" s="135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V136" s="136">
-        <f t="shared" ca="1" si="11"/>
-        <v>4.2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.2</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
@@ -44534,7 +44548,7 @@
         <v>338</v>
       </c>
       <c r="D137" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E137" s="124"/>
@@ -44544,7 +44558,7 @@
       </c>
       <c r="H137" s="125"/>
       <c r="I137" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="J137" s="125">
@@ -44569,23 +44583,23 @@
         <v>355</v>
       </c>
       <c r="R137" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="S137" s="134">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
       <c r="T137" s="134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="U137" s="135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V137" s="136">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>9</v>
       </c>
     </row>
@@ -44600,7 +44614,7 @@
         <v>338</v>
       </c>
       <c r="D138" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E138" s="124"/>
@@ -44610,7 +44624,7 @@
       </c>
       <c r="H138" s="125"/>
       <c r="I138" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="J138" s="125">
@@ -44635,24 +44649,24 @@
         <v>362</v>
       </c>
       <c r="R138" s="134">
-        <f t="shared" si="7"/>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>58</v>
       </c>
       <c r="S138" s="134">
-        <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>55</v>
       </c>
       <c r="T138" s="134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U138" s="135">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U138" s="135">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="V138" s="136">
-        <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
@@ -44666,7 +44680,7 @@
         <v>338</v>
       </c>
       <c r="D139" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E139" s="124"/>
@@ -44676,7 +44690,7 @@
       </c>
       <c r="H139" s="125"/>
       <c r="I139" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="J139" s="125">
@@ -44701,19 +44715,19 @@
         <v>363</v>
       </c>
       <c r="R139" s="134">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S139" s="134">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T139" s="134">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="S139" s="134">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T139" s="134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="U139" s="135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V139" s="136">
@@ -44732,7 +44746,7 @@
         <v>338</v>
       </c>
       <c r="D140" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E140" s="124"/>
@@ -44742,7 +44756,7 @@
       </c>
       <c r="H140" s="125"/>
       <c r="I140" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J140" s="125">
@@ -44767,19 +44781,19 @@
         <v>364</v>
       </c>
       <c r="R140" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="S140" s="134">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>6</v>
       </c>
       <c r="T140" s="134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U140" s="135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V140" s="136">
@@ -44798,7 +44812,7 @@
         <v>342</v>
       </c>
       <c r="D141" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E141" s="124"/>
@@ -44808,7 +44822,7 @@
       </c>
       <c r="H141" s="125"/>
       <c r="I141" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="J141" s="125">
@@ -44831,23 +44845,23 @@
       </c>
       <c r="Q141" s="123"/>
       <c r="R141" s="134">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S141" s="134">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T141" s="134">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U141" s="135">
+      <c r="S141" s="134">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="T141" s="134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U141" s="135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="V141" s="136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -44862,7 +44876,7 @@
         <v>338</v>
       </c>
       <c r="D142" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E142" s="124"/>
@@ -44872,7 +44886,7 @@
       </c>
       <c r="H142" s="125"/>
       <c r="I142" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="J142" s="125">
@@ -44895,7 +44909,7 @@
       </c>
       <c r="Q142" s="150"/>
       <c r="R142" s="151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S142" s="151">
@@ -44903,15 +44917,15 @@
         <v>0</v>
       </c>
       <c r="T142" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U142" s="152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V142" s="153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -44926,7 +44940,7 @@
         <v>338</v>
       </c>
       <c r="D143" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E143" s="124"/>
@@ -44936,7 +44950,7 @@
       </c>
       <c r="H143" s="125"/>
       <c r="I143" s="121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="J143" s="125">
@@ -44975,7 +44989,7 @@
         <v>343</v>
       </c>
       <c r="D144" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E144" s="124"/>
@@ -44983,7 +44997,7 @@
       <c r="G144" s="125"/>
       <c r="H144" s="125"/>
       <c r="I144" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J144" s="125"/>
@@ -45010,7 +45024,7 @@
         <v>343</v>
       </c>
       <c r="D145" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E145" s="124"/>
@@ -45018,7 +45032,7 @@
       <c r="G145" s="125"/>
       <c r="H145" s="125"/>
       <c r="I145" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J145" s="125"/>
@@ -45045,7 +45059,7 @@
         <v>343</v>
       </c>
       <c r="D146" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E146" s="124"/>
@@ -45053,7 +45067,7 @@
       <c r="G146" s="125"/>
       <c r="H146" s="125"/>
       <c r="I146" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J146" s="125"/>
@@ -45080,7 +45094,7 @@
         <v>343</v>
       </c>
       <c r="D147" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E147" s="124"/>
@@ -45088,7 +45102,7 @@
       <c r="G147" s="125"/>
       <c r="H147" s="125"/>
       <c r="I147" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J147" s="125"/>
@@ -45109,7 +45123,7 @@
         <v>343</v>
       </c>
       <c r="D148" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E148" s="124"/>
@@ -45117,7 +45131,7 @@
       <c r="G148" s="125"/>
       <c r="H148" s="125"/>
       <c r="I148" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J148" s="125"/>
@@ -45138,7 +45152,7 @@
         <v>343</v>
       </c>
       <c r="D149" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E149" s="124"/>
@@ -45146,7 +45160,7 @@
       <c r="G149" s="125"/>
       <c r="H149" s="125"/>
       <c r="I149" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J149" s="125"/>
@@ -45167,7 +45181,7 @@
         <v>343</v>
       </c>
       <c r="D150" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E150" s="124"/>
@@ -45175,7 +45189,7 @@
       <c r="G150" s="125"/>
       <c r="H150" s="125"/>
       <c r="I150" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J150" s="125"/>
@@ -45196,7 +45210,7 @@
         <v>343</v>
       </c>
       <c r="D151" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E151" s="124"/>
@@ -45204,7 +45218,7 @@
       <c r="G151" s="125"/>
       <c r="H151" s="125"/>
       <c r="I151" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J151" s="125"/>
@@ -45225,7 +45239,7 @@
         <v>343</v>
       </c>
       <c r="D152" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E152" s="124"/>
@@ -45233,7 +45247,7 @@
       <c r="G152" s="125"/>
       <c r="H152" s="125"/>
       <c r="I152" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J152" s="125"/>
@@ -45254,7 +45268,7 @@
         <v>343</v>
       </c>
       <c r="D153" s="121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="E153" s="124"/>
@@ -45262,7 +45276,7 @@
       <c r="G153" s="125"/>
       <c r="H153" s="125"/>
       <c r="I153" s="121" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="J153" s="125"/>
@@ -45283,7 +45297,7 @@
         <v>343</v>
       </c>
       <c r="D154" s="121" t="str">
-        <f t="shared" ref="D154:D216" si="12">IF(ISBLANK($B154),"",IF(ISBLANK($F154),"未着手",IF($I154=0,"完了","作業中")))</f>
+        <f t="shared" ref="D154:D216" si="14">IF(ISBLANK($B154),"",IF(ISBLANK($F154),"未着手",IF($I154=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E154" s="124"/>
@@ -45291,7 +45305,7 @@
       <c r="G154" s="125"/>
       <c r="H154" s="125"/>
       <c r="I154" s="121" t="str">
-        <f t="shared" ref="I154:I216" ca="1" si="13">IF(ISBLANK(J154)=FALSE,OFFSET(I154,0,COUNTA(J154:O154)),"")</f>
+        <f t="shared" ref="I154:I216" ca="1" si="15">IF(ISBLANK(J154)=FALSE,OFFSET(I154,0,COUNTA(J154:O154)),"")</f>
         <v/>
       </c>
       <c r="J154" s="125"/>
@@ -45308,7 +45322,7 @@
       <c r="B155" s="122"/>
       <c r="C155" s="123"/>
       <c r="D155" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E155" s="124"/>
@@ -45316,7 +45330,7 @@
       <c r="G155" s="125"/>
       <c r="H155" s="125"/>
       <c r="I155" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J155" s="125"/>
@@ -45337,7 +45351,7 @@
         <v>338</v>
       </c>
       <c r="D156" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E156" s="124"/>
@@ -45347,7 +45361,7 @@
       </c>
       <c r="H156" s="125"/>
       <c r="I156" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J156" s="125">
@@ -45380,7 +45394,7 @@
         <v>338</v>
       </c>
       <c r="D157" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>作業中</v>
       </c>
       <c r="E157" s="124"/>
@@ -45392,7 +45406,7 @@
       </c>
       <c r="H157" s="125"/>
       <c r="I157" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1.5</v>
       </c>
       <c r="J157" s="125">
@@ -45425,7 +45439,7 @@
         <v>338</v>
       </c>
       <c r="D158" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E158" s="124"/>
@@ -45435,7 +45449,7 @@
       </c>
       <c r="H158" s="125"/>
       <c r="I158" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="J158" s="125">
@@ -45464,7 +45478,7 @@
       <c r="B159" s="122"/>
       <c r="C159" s="123"/>
       <c r="D159" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E159" s="124"/>
@@ -45472,7 +45486,7 @@
       <c r="G159" s="125"/>
       <c r="H159" s="125"/>
       <c r="I159" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J159" s="125"/>
@@ -45491,7 +45505,7 @@
       </c>
       <c r="C160" s="123"/>
       <c r="D160" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E160" s="124"/>
@@ -45499,7 +45513,7 @@
       <c r="G160" s="125"/>
       <c r="H160" s="125"/>
       <c r="I160" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J160" s="125"/>
@@ -45520,7 +45534,7 @@
         <v>338</v>
       </c>
       <c r="D161" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E161" s="124"/>
@@ -45530,7 +45544,7 @@
       </c>
       <c r="H161" s="125"/>
       <c r="I161" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J161" s="125">
@@ -45563,7 +45577,7 @@
         <v>338</v>
       </c>
       <c r="D162" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E162" s="124"/>
@@ -45573,7 +45587,7 @@
       </c>
       <c r="H162" s="125"/>
       <c r="I162" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J162" s="125">
@@ -45606,7 +45620,7 @@
         <v>338</v>
       </c>
       <c r="D163" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E163" s="124"/>
@@ -45616,7 +45630,7 @@
       </c>
       <c r="H163" s="125"/>
       <c r="I163" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J163" s="125">
@@ -45649,7 +45663,7 @@
         <v>338</v>
       </c>
       <c r="D164" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E164" s="124"/>
@@ -45659,7 +45673,7 @@
       </c>
       <c r="H164" s="125"/>
       <c r="I164" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J164" s="125">
@@ -45692,7 +45706,7 @@
         <v>338</v>
       </c>
       <c r="D165" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E165" s="124"/>
@@ -45702,7 +45716,7 @@
       </c>
       <c r="H165" s="125"/>
       <c r="I165" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J165" s="125">
@@ -45735,7 +45749,7 @@
         <v>338</v>
       </c>
       <c r="D166" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E166" s="124"/>
@@ -45745,7 +45759,7 @@
       </c>
       <c r="H166" s="125"/>
       <c r="I166" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J166" s="125">
@@ -45774,7 +45788,7 @@
       <c r="B167" s="122"/>
       <c r="C167" s="123"/>
       <c r="D167" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E167" s="124"/>
@@ -45782,7 +45796,7 @@
       <c r="G167" s="125"/>
       <c r="H167" s="125"/>
       <c r="I167" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J167" s="125"/>
@@ -45801,7 +45815,7 @@
       </c>
       <c r="C168" s="123"/>
       <c r="D168" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E168" s="124"/>
@@ -45809,7 +45823,7 @@
       <c r="G168" s="125"/>
       <c r="H168" s="125"/>
       <c r="I168" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J168" s="125"/>
@@ -45830,7 +45844,7 @@
         <v>341</v>
       </c>
       <c r="D169" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E169" s="124"/>
@@ -45838,7 +45852,7 @@
       <c r="G169" s="125"/>
       <c r="H169" s="125"/>
       <c r="I169" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J169" s="125"/>
@@ -45859,7 +45873,7 @@
         <v>338</v>
       </c>
       <c r="D170" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E170" s="124"/>
@@ -45869,7 +45883,7 @@
       </c>
       <c r="H170" s="125"/>
       <c r="I170" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J170" s="125">
@@ -45902,7 +45916,7 @@
         <v>338</v>
       </c>
       <c r="D171" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E171" s="124"/>
@@ -45912,7 +45926,7 @@
       </c>
       <c r="H171" s="125"/>
       <c r="I171" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J171" s="125">
@@ -45945,7 +45959,7 @@
         <v>345</v>
       </c>
       <c r="D172" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E172" s="124"/>
@@ -45955,7 +45969,7 @@
       </c>
       <c r="H172" s="125"/>
       <c r="I172" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J172" s="125">
@@ -45988,7 +46002,7 @@
         <v>345</v>
       </c>
       <c r="D173" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E173" s="124"/>
@@ -45998,7 +46012,7 @@
       </c>
       <c r="H173" s="125"/>
       <c r="I173" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J173" s="125">
@@ -46031,7 +46045,7 @@
         <v>345</v>
       </c>
       <c r="D174" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E174" s="124"/>
@@ -46041,7 +46055,7 @@
       </c>
       <c r="H174" s="125"/>
       <c r="I174" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="J174" s="125">
@@ -46070,7 +46084,7 @@
       <c r="B175" s="122"/>
       <c r="C175" s="123"/>
       <c r="D175" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E175" s="124"/>
@@ -46078,7 +46092,7 @@
       <c r="G175" s="125"/>
       <c r="H175" s="125"/>
       <c r="I175" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J175" s="125"/>
@@ -46097,7 +46111,7 @@
       </c>
       <c r="C176" s="123"/>
       <c r="D176" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E176" s="124"/>
@@ -46105,7 +46119,7 @@
       <c r="G176" s="125"/>
       <c r="H176" s="125"/>
       <c r="I176" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J176" s="125"/>
@@ -46124,7 +46138,7 @@
       </c>
       <c r="C177" s="123"/>
       <c r="D177" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E177" s="124"/>
@@ -46134,7 +46148,7 @@
       </c>
       <c r="H177" s="125"/>
       <c r="I177" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J177" s="125">
@@ -46167,7 +46181,7 @@
         <v>341</v>
       </c>
       <c r="D178" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E178" s="124"/>
@@ -46177,7 +46191,7 @@
       </c>
       <c r="H178" s="125"/>
       <c r="I178" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="J178" s="125">
@@ -46210,7 +46224,7 @@
         <v>345</v>
       </c>
       <c r="D179" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E179" s="124"/>
@@ -46220,7 +46234,7 @@
       </c>
       <c r="H179" s="125"/>
       <c r="I179" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J179" s="125">
@@ -46253,7 +46267,7 @@
         <v>345</v>
       </c>
       <c r="D180" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E180" s="124"/>
@@ -46263,7 +46277,7 @@
       </c>
       <c r="H180" s="125"/>
       <c r="I180" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J180" s="125">
@@ -46296,7 +46310,7 @@
         <v>345</v>
       </c>
       <c r="D181" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E181" s="124"/>
@@ -46306,7 +46320,7 @@
       </c>
       <c r="H181" s="125"/>
       <c r="I181" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="J181" s="125">
@@ -46339,7 +46353,7 @@
         <v>345</v>
       </c>
       <c r="D182" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E182" s="124"/>
@@ -46349,7 +46363,7 @@
       </c>
       <c r="H182" s="125"/>
       <c r="I182" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="J182" s="125">
@@ -46382,7 +46396,7 @@
         <v>345</v>
       </c>
       <c r="D183" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E183" s="124"/>
@@ -46392,7 +46406,7 @@
       </c>
       <c r="H183" s="125"/>
       <c r="I183" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="J183" s="125">
@@ -46425,7 +46439,7 @@
         <v>345</v>
       </c>
       <c r="D184" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E184" s="124"/>
@@ -46435,7 +46449,7 @@
       </c>
       <c r="H184" s="125"/>
       <c r="I184" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J184" s="125">
@@ -46464,7 +46478,7 @@
       <c r="B185" s="122"/>
       <c r="C185" s="123"/>
       <c r="D185" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E185" s="124"/>
@@ -46472,7 +46486,7 @@
       <c r="G185" s="125"/>
       <c r="H185" s="125"/>
       <c r="I185" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J185" s="125"/>
@@ -46489,7 +46503,7 @@
       <c r="B186" s="122"/>
       <c r="C186" s="123"/>
       <c r="D186" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E186" s="124"/>
@@ -46497,7 +46511,7 @@
       <c r="G186" s="125"/>
       <c r="H186" s="125"/>
       <c r="I186" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J186" s="125"/>
@@ -46516,7 +46530,7 @@
       </c>
       <c r="C187" s="123"/>
       <c r="D187" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E187" s="124"/>
@@ -46524,7 +46538,7 @@
       <c r="G187" s="125"/>
       <c r="H187" s="125"/>
       <c r="I187" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J187" s="125"/>
@@ -46545,7 +46559,7 @@
         <v>345</v>
       </c>
       <c r="D188" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E188" s="124"/>
@@ -46559,7 +46573,7 @@
         <v>1</v>
       </c>
       <c r="I188" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J188" s="125">
@@ -46592,7 +46606,7 @@
         <v>345</v>
       </c>
       <c r="D189" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E189" s="124"/>
@@ -46606,7 +46620,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J189" s="125">
@@ -46639,7 +46653,7 @@
         <v>345</v>
       </c>
       <c r="D190" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E190" s="124"/>
@@ -46653,7 +46667,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J190" s="125">
@@ -46686,7 +46700,7 @@
         <v>345</v>
       </c>
       <c r="D191" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E191" s="124"/>
@@ -46700,7 +46714,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J191" s="125">
@@ -46733,7 +46747,7 @@
         <v>345</v>
       </c>
       <c r="D192" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E192" s="124"/>
@@ -46747,7 +46761,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J192" s="125">
@@ -46780,7 +46794,7 @@
         <v>345</v>
       </c>
       <c r="D193" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E193" s="124"/>
@@ -46794,7 +46808,7 @@
         <v>1</v>
       </c>
       <c r="I193" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J193" s="125">
@@ -46827,7 +46841,7 @@
         <v>345</v>
       </c>
       <c r="D194" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E194" s="124"/>
@@ -46841,7 +46855,7 @@
         <v>1</v>
       </c>
       <c r="I194" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J194" s="125">
@@ -46874,7 +46888,7 @@
         <v>345</v>
       </c>
       <c r="D195" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E195" s="124"/>
@@ -46888,7 +46902,7 @@
         <v>1</v>
       </c>
       <c r="I195" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J195" s="125">
@@ -46921,7 +46935,7 @@
         <v>345</v>
       </c>
       <c r="D196" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E196" s="124"/>
@@ -46935,7 +46949,7 @@
         <v>1</v>
       </c>
       <c r="I196" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J196" s="125">
@@ -46968,7 +46982,7 @@
         <v>345</v>
       </c>
       <c r="D197" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E197" s="124"/>
@@ -46982,7 +46996,7 @@
         <v>1</v>
       </c>
       <c r="I197" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J197" s="125">
@@ -47015,7 +47029,7 @@
         <v>345</v>
       </c>
       <c r="D198" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E198" s="124"/>
@@ -47027,7 +47041,7 @@
       </c>
       <c r="H198" s="125"/>
       <c r="I198" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J198" s="125">
@@ -47060,7 +47074,7 @@
         <v>345</v>
       </c>
       <c r="D199" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>作業中</v>
       </c>
       <c r="E199" s="124"/>
@@ -47072,7 +47086,7 @@
       </c>
       <c r="H199" s="125"/>
       <c r="I199" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="J199" s="125">
@@ -47105,7 +47119,7 @@
         <v>345</v>
       </c>
       <c r="D200" s="121" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="E200" s="124"/>
@@ -47117,7 +47131,7 @@
       </c>
       <c r="H200" s="125"/>
       <c r="I200" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="J200" s="125">
@@ -47146,7 +47160,7 @@
       <c r="B201" s="122"/>
       <c r="C201" s="123"/>
       <c r="D201" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E201" s="124"/>
@@ -47154,7 +47168,7 @@
       <c r="G201" s="125"/>
       <c r="H201" s="125"/>
       <c r="I201" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J201" s="125"/>
@@ -47175,7 +47189,7 @@
         <v>345</v>
       </c>
       <c r="D202" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E202" s="124"/>
@@ -47183,7 +47197,7 @@
       <c r="G202" s="125"/>
       <c r="H202" s="125"/>
       <c r="I202" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J202" s="125"/>
@@ -47204,7 +47218,7 @@
         <v>345</v>
       </c>
       <c r="D203" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E203" s="124"/>
@@ -47212,7 +47226,7 @@
       <c r="G203" s="125"/>
       <c r="H203" s="125"/>
       <c r="I203" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J203" s="125"/>
@@ -47233,7 +47247,7 @@
         <v>345</v>
       </c>
       <c r="D204" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E204" s="124"/>
@@ -47243,7 +47257,7 @@
       </c>
       <c r="H204" s="125"/>
       <c r="I204" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J204" s="125">
@@ -47276,7 +47290,7 @@
         <v>345</v>
       </c>
       <c r="D205" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E205" s="124"/>
@@ -47286,7 +47300,7 @@
       </c>
       <c r="H205" s="125"/>
       <c r="I205" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="J205" s="125">
@@ -47319,7 +47333,7 @@
         <v>345</v>
       </c>
       <c r="D206" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E206" s="124"/>
@@ -47329,7 +47343,7 @@
       </c>
       <c r="H206" s="125"/>
       <c r="I206" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="J206" s="125">
@@ -47362,7 +47376,7 @@
         <v>345</v>
       </c>
       <c r="D207" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E207" s="124"/>
@@ -47370,7 +47384,7 @@
       <c r="G207" s="125"/>
       <c r="H207" s="125"/>
       <c r="I207" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J207" s="125"/>
@@ -47387,7 +47401,7 @@
       <c r="B208" s="122"/>
       <c r="C208" s="123"/>
       <c r="D208" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E208" s="124"/>
@@ -47395,7 +47409,7 @@
       <c r="G208" s="125"/>
       <c r="H208" s="125"/>
       <c r="I208" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J208" s="125"/>
@@ -47414,7 +47428,7 @@
       </c>
       <c r="C209" s="127"/>
       <c r="D209" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E209" s="124"/>
@@ -47422,7 +47436,7 @@
       <c r="G209" s="125"/>
       <c r="H209" s="125"/>
       <c r="I209" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J209" s="125"/>
@@ -47443,7 +47457,7 @@
         <v>345</v>
       </c>
       <c r="D210" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E210" s="124"/>
@@ -47451,7 +47465,7 @@
       <c r="G210" s="125"/>
       <c r="H210" s="125"/>
       <c r="I210" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J210" s="125"/>
@@ -47468,7 +47482,7 @@
       <c r="B211" s="122"/>
       <c r="C211" s="123"/>
       <c r="D211" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E211" s="124"/>
@@ -47476,7 +47490,7 @@
       <c r="G211" s="125"/>
       <c r="H211" s="125"/>
       <c r="I211" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J211" s="125"/>
@@ -47497,7 +47511,7 @@
         <v>345</v>
       </c>
       <c r="D212" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E212" s="124"/>
@@ -47505,7 +47519,7 @@
       <c r="G212" s="125"/>
       <c r="H212" s="125"/>
       <c r="I212" s="121" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J212" s="125"/>
@@ -47526,7 +47540,7 @@
         <v>345</v>
       </c>
       <c r="D213" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E213" s="124"/>
@@ -47536,7 +47550,7 @@
       </c>
       <c r="H213" s="125"/>
       <c r="I213" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
       <c r="J213" s="125">
@@ -47569,7 +47583,7 @@
         <v>345</v>
       </c>
       <c r="D214" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E214" s="124"/>
@@ -47579,7 +47593,7 @@
       </c>
       <c r="H214" s="125"/>
       <c r="I214" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2.5</v>
       </c>
       <c r="J214" s="125">
@@ -47612,7 +47626,7 @@
         <v>345</v>
       </c>
       <c r="D215" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E215" s="124"/>
@@ -47622,7 +47636,7 @@
       </c>
       <c r="H215" s="125"/>
       <c r="I215" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="J215" s="125">
@@ -47655,7 +47669,7 @@
         <v>345</v>
       </c>
       <c r="D216" s="121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="E216" s="124"/>
@@ -47665,7 +47679,7 @@
       </c>
       <c r="H216" s="125"/>
       <c r="I216" s="121">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="J216" s="125">
@@ -47698,7 +47712,7 @@
         <v>345</v>
       </c>
       <c r="D217" s="121" t="str">
-        <f t="shared" ref="D217:D280" si="14">IF(ISBLANK($B217),"",IF(ISBLANK($F217),"未着手",IF($I217=0,"完了","作業中")))</f>
+        <f t="shared" ref="D217:D280" si="16">IF(ISBLANK($B217),"",IF(ISBLANK($F217),"未着手",IF($I217=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E217" s="124"/>
@@ -47708,7 +47722,7 @@
       </c>
       <c r="H217" s="125"/>
       <c r="I217" s="121">
-        <f t="shared" ref="I217:I280" ca="1" si="15">IF(ISBLANK(J217)=FALSE,OFFSET(I217,0,COUNTA(J217:O217)),"")</f>
+        <f t="shared" ref="I217:I280" ca="1" si="17">IF(ISBLANK(J217)=FALSE,OFFSET(I217,0,COUNTA(J217:O217)),"")</f>
         <v>1</v>
       </c>
       <c r="J217" s="125">
@@ -47741,7 +47755,7 @@
         <v>345</v>
       </c>
       <c r="D218" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E218" s="124"/>
@@ -47751,7 +47765,7 @@
       </c>
       <c r="H218" s="125"/>
       <c r="I218" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="J218" s="125">
@@ -47784,7 +47798,7 @@
         <v>345</v>
       </c>
       <c r="D219" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E219" s="124"/>
@@ -47794,7 +47808,7 @@
       </c>
       <c r="H219" s="125"/>
       <c r="I219" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="J219" s="125">
@@ -47827,7 +47841,7 @@
         <v>345</v>
       </c>
       <c r="D220" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E220" s="124"/>
@@ -47837,7 +47851,7 @@
       </c>
       <c r="H220" s="125"/>
       <c r="I220" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.5</v>
       </c>
       <c r="J220" s="125">
@@ -47870,7 +47884,7 @@
         <v>345</v>
       </c>
       <c r="D221" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E221" s="124"/>
@@ -47880,7 +47894,7 @@
       </c>
       <c r="H221" s="125"/>
       <c r="I221" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2.5</v>
       </c>
       <c r="J221" s="125">
@@ -47913,7 +47927,7 @@
         <v>345</v>
       </c>
       <c r="D222" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E222" s="124"/>
@@ -47923,7 +47937,7 @@
       </c>
       <c r="H222" s="125"/>
       <c r="I222" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="J222" s="125">
@@ -47956,7 +47970,7 @@
         <v>345</v>
       </c>
       <c r="D223" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E223" s="124"/>
@@ -47964,7 +47978,7 @@
       <c r="G223" s="125"/>
       <c r="H223" s="125"/>
       <c r="I223" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J223" s="125"/>
@@ -47981,7 +47995,7 @@
       <c r="B224" s="122"/>
       <c r="C224" s="123"/>
       <c r="D224" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E224" s="124"/>
@@ -47989,7 +48003,7 @@
       <c r="G224" s="125"/>
       <c r="H224" s="125"/>
       <c r="I224" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J224" s="125"/>
@@ -48010,7 +48024,7 @@
         <v>345</v>
       </c>
       <c r="D225" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E225" s="124"/>
@@ -48018,7 +48032,7 @@
       <c r="G225" s="125"/>
       <c r="H225" s="125"/>
       <c r="I225" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J225" s="125"/>
@@ -48039,7 +48053,7 @@
         <v>345</v>
       </c>
       <c r="D226" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E226" s="124"/>
@@ -48049,7 +48063,7 @@
       </c>
       <c r="H226" s="125"/>
       <c r="I226" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="J226" s="125">
@@ -48082,7 +48096,7 @@
         <v>345</v>
       </c>
       <c r="D227" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E227" s="124"/>
@@ -48092,7 +48106,7 @@
       </c>
       <c r="H227" s="125"/>
       <c r="I227" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="J227" s="125">
@@ -48121,7 +48135,7 @@
       <c r="B228" s="122"/>
       <c r="C228" s="123"/>
       <c r="D228" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E228" s="124"/>
@@ -48129,7 +48143,7 @@
       <c r="G228" s="125"/>
       <c r="H228" s="125"/>
       <c r="I228" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J228" s="125"/>
@@ -48150,7 +48164,7 @@
         <v>345</v>
       </c>
       <c r="D229" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E229" s="124"/>
@@ -48158,7 +48172,7 @@
       <c r="G229" s="125"/>
       <c r="H229" s="125"/>
       <c r="I229" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J229" s="125"/>
@@ -48179,7 +48193,7 @@
         <v>345</v>
       </c>
       <c r="D230" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E230" s="124"/>
@@ -48189,7 +48203,7 @@
       </c>
       <c r="H230" s="125"/>
       <c r="I230" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2.5</v>
       </c>
       <c r="J230" s="125">
@@ -48222,7 +48236,7 @@
         <v>345</v>
       </c>
       <c r="D231" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E231" s="124"/>
@@ -48230,7 +48244,7 @@
       <c r="G231" s="125"/>
       <c r="H231" s="125"/>
       <c r="I231" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J231" s="125"/>
@@ -48247,7 +48261,7 @@
       <c r="B232" s="122"/>
       <c r="C232" s="123"/>
       <c r="D232" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E232" s="124"/>
@@ -48255,7 +48269,7 @@
       <c r="G232" s="125"/>
       <c r="H232" s="125"/>
       <c r="I232" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J232" s="125"/>
@@ -48276,7 +48290,7 @@
         <v>345</v>
       </c>
       <c r="D233" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E233" s="124"/>
@@ -48284,7 +48298,7 @@
       <c r="G233" s="125"/>
       <c r="H233" s="125"/>
       <c r="I233" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J233" s="125"/>
@@ -48305,7 +48319,7 @@
         <v>345</v>
       </c>
       <c r="D234" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E234" s="124"/>
@@ -48315,7 +48329,7 @@
       </c>
       <c r="H234" s="125"/>
       <c r="I234" s="121">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2.5</v>
       </c>
       <c r="J234" s="125">
@@ -48348,7 +48362,7 @@
         <v>345</v>
       </c>
       <c r="D235" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="E235" s="124"/>
@@ -48356,7 +48370,7 @@
       <c r="G235" s="125"/>
       <c r="H235" s="125"/>
       <c r="I235" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J235" s="125"/>
@@ -48373,7 +48387,7 @@
       <c r="B236" s="122"/>
       <c r="C236" s="123"/>
       <c r="D236" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E236" s="124"/>
@@ -48381,7 +48395,7 @@
       <c r="G236" s="125"/>
       <c r="H236" s="125"/>
       <c r="I236" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J236" s="125"/>
@@ -48398,7 +48412,7 @@
       <c r="B237" s="122"/>
       <c r="C237" s="123"/>
       <c r="D237" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E237" s="124"/>
@@ -48406,7 +48420,7 @@
       <c r="G237" s="125"/>
       <c r="H237" s="125"/>
       <c r="I237" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J237" s="125"/>
@@ -48423,7 +48437,7 @@
       <c r="B238" s="122"/>
       <c r="C238" s="123"/>
       <c r="D238" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E238" s="124"/>
@@ -48431,7 +48445,7 @@
       <c r="G238" s="125"/>
       <c r="H238" s="125"/>
       <c r="I238" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J238" s="125"/>
@@ -48448,7 +48462,7 @@
       <c r="B239" s="122"/>
       <c r="C239" s="123"/>
       <c r="D239" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E239" s="124"/>
@@ -48456,7 +48470,7 @@
       <c r="G239" s="125"/>
       <c r="H239" s="125"/>
       <c r="I239" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J239" s="125"/>
@@ -48473,7 +48487,7 @@
       <c r="B240" s="122"/>
       <c r="C240" s="123"/>
       <c r="D240" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E240" s="124"/>
@@ -48481,7 +48495,7 @@
       <c r="G240" s="125"/>
       <c r="H240" s="125"/>
       <c r="I240" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J240" s="125"/>
@@ -48498,7 +48512,7 @@
       <c r="B241" s="122"/>
       <c r="C241" s="123"/>
       <c r="D241" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E241" s="124"/>
@@ -48506,7 +48520,7 @@
       <c r="G241" s="125"/>
       <c r="H241" s="125"/>
       <c r="I241" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J241" s="125"/>
@@ -48523,7 +48537,7 @@
       <c r="B242" s="122"/>
       <c r="C242" s="123"/>
       <c r="D242" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E242" s="124"/>
@@ -48531,7 +48545,7 @@
       <c r="G242" s="125"/>
       <c r="H242" s="125"/>
       <c r="I242" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J242" s="125"/>
@@ -48548,7 +48562,7 @@
       <c r="B243" s="122"/>
       <c r="C243" s="123"/>
       <c r="D243" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E243" s="124"/>
@@ -48556,7 +48570,7 @@
       <c r="G243" s="125"/>
       <c r="H243" s="125"/>
       <c r="I243" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J243" s="125"/>
@@ -48573,7 +48587,7 @@
       <c r="B244" s="122"/>
       <c r="C244" s="123"/>
       <c r="D244" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E244" s="124"/>
@@ -48581,7 +48595,7 @@
       <c r="G244" s="125"/>
       <c r="H244" s="125"/>
       <c r="I244" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J244" s="125"/>
@@ -48598,7 +48612,7 @@
       <c r="B245" s="122"/>
       <c r="C245" s="123"/>
       <c r="D245" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E245" s="124"/>
@@ -48606,7 +48620,7 @@
       <c r="G245" s="125"/>
       <c r="H245" s="125"/>
       <c r="I245" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J245" s="125"/>
@@ -48623,7 +48637,7 @@
       <c r="B246" s="122"/>
       <c r="C246" s="123"/>
       <c r="D246" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E246" s="124"/>
@@ -48631,7 +48645,7 @@
       <c r="G246" s="125"/>
       <c r="H246" s="125"/>
       <c r="I246" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J246" s="125"/>
@@ -48648,7 +48662,7 @@
       <c r="B247" s="122"/>
       <c r="C247" s="123"/>
       <c r="D247" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E247" s="124"/>
@@ -48656,7 +48670,7 @@
       <c r="G247" s="125"/>
       <c r="H247" s="125"/>
       <c r="I247" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J247" s="125"/>
@@ -48673,7 +48687,7 @@
       <c r="B248" s="122"/>
       <c r="C248" s="123"/>
       <c r="D248" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E248" s="124"/>
@@ -48681,7 +48695,7 @@
       <c r="G248" s="125"/>
       <c r="H248" s="125"/>
       <c r="I248" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J248" s="125"/>
@@ -48698,7 +48712,7 @@
       <c r="B249" s="122"/>
       <c r="C249" s="123"/>
       <c r="D249" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E249" s="124"/>
@@ -48706,7 +48720,7 @@
       <c r="G249" s="125"/>
       <c r="H249" s="125"/>
       <c r="I249" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J249" s="125"/>
@@ -48723,7 +48737,7 @@
       <c r="B250" s="122"/>
       <c r="C250" s="123"/>
       <c r="D250" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E250" s="124"/>
@@ -48731,7 +48745,7 @@
       <c r="G250" s="125"/>
       <c r="H250" s="125"/>
       <c r="I250" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J250" s="125"/>
@@ -48748,7 +48762,7 @@
       <c r="B251" s="122"/>
       <c r="C251" s="123"/>
       <c r="D251" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E251" s="124"/>
@@ -48756,7 +48770,7 @@
       <c r="G251" s="125"/>
       <c r="H251" s="125"/>
       <c r="I251" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J251" s="125"/>
@@ -48773,7 +48787,7 @@
       <c r="B252" s="122"/>
       <c r="C252" s="123"/>
       <c r="D252" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E252" s="124"/>
@@ -48781,7 +48795,7 @@
       <c r="G252" s="125"/>
       <c r="H252" s="125"/>
       <c r="I252" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J252" s="125"/>
@@ -48798,7 +48812,7 @@
       <c r="B253" s="122"/>
       <c r="C253" s="123"/>
       <c r="D253" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E253" s="124"/>
@@ -48806,7 +48820,7 @@
       <c r="G253" s="125"/>
       <c r="H253" s="125"/>
       <c r="I253" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J253" s="125"/>
@@ -48823,7 +48837,7 @@
       <c r="B254" s="122"/>
       <c r="C254" s="123"/>
       <c r="D254" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E254" s="124"/>
@@ -48831,7 +48845,7 @@
       <c r="G254" s="125"/>
       <c r="H254" s="125"/>
       <c r="I254" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J254" s="125"/>
@@ -48848,7 +48862,7 @@
       <c r="B255" s="122"/>
       <c r="C255" s="123"/>
       <c r="D255" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E255" s="124"/>
@@ -48856,7 +48870,7 @@
       <c r="G255" s="125"/>
       <c r="H255" s="125"/>
       <c r="I255" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J255" s="125"/>
@@ -48873,7 +48887,7 @@
       <c r="B256" s="122"/>
       <c r="C256" s="123"/>
       <c r="D256" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E256" s="124"/>
@@ -48881,7 +48895,7 @@
       <c r="G256" s="125"/>
       <c r="H256" s="125"/>
       <c r="I256" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J256" s="125"/>
@@ -48898,7 +48912,7 @@
       <c r="B257" s="122"/>
       <c r="C257" s="123"/>
       <c r="D257" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E257" s="124"/>
@@ -48906,7 +48920,7 @@
       <c r="G257" s="125"/>
       <c r="H257" s="125"/>
       <c r="I257" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J257" s="125"/>
@@ -48923,7 +48937,7 @@
       <c r="B258" s="122"/>
       <c r="C258" s="123"/>
       <c r="D258" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E258" s="124"/>
@@ -48931,7 +48945,7 @@
       <c r="G258" s="125"/>
       <c r="H258" s="125"/>
       <c r="I258" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J258" s="125"/>
@@ -48948,7 +48962,7 @@
       <c r="B259" s="122"/>
       <c r="C259" s="123"/>
       <c r="D259" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E259" s="124"/>
@@ -48956,7 +48970,7 @@
       <c r="G259" s="125"/>
       <c r="H259" s="125"/>
       <c r="I259" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J259" s="125"/>
@@ -48973,7 +48987,7 @@
       <c r="B260" s="122"/>
       <c r="C260" s="123"/>
       <c r="D260" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E260" s="124"/>
@@ -48981,7 +48995,7 @@
       <c r="G260" s="125"/>
       <c r="H260" s="125"/>
       <c r="I260" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J260" s="125"/>
@@ -48998,7 +49012,7 @@
       <c r="B261" s="122"/>
       <c r="C261" s="123"/>
       <c r="D261" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E261" s="124"/>
@@ -49006,7 +49020,7 @@
       <c r="G261" s="125"/>
       <c r="H261" s="125"/>
       <c r="I261" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J261" s="125"/>
@@ -49023,7 +49037,7 @@
       <c r="B262" s="122"/>
       <c r="C262" s="123"/>
       <c r="D262" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E262" s="124"/>
@@ -49031,7 +49045,7 @@
       <c r="G262" s="125"/>
       <c r="H262" s="125"/>
       <c r="I262" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J262" s="125"/>
@@ -49048,7 +49062,7 @@
       <c r="B263" s="122"/>
       <c r="C263" s="123"/>
       <c r="D263" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E263" s="124"/>
@@ -49056,7 +49070,7 @@
       <c r="G263" s="125"/>
       <c r="H263" s="125"/>
       <c r="I263" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J263" s="125"/>
@@ -49073,7 +49087,7 @@
       <c r="B264" s="122"/>
       <c r="C264" s="123"/>
       <c r="D264" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E264" s="124"/>
@@ -49081,7 +49095,7 @@
       <c r="G264" s="125"/>
       <c r="H264" s="125"/>
       <c r="I264" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J264" s="125"/>
@@ -49098,7 +49112,7 @@
       <c r="B265" s="122"/>
       <c r="C265" s="123"/>
       <c r="D265" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E265" s="124"/>
@@ -49106,7 +49120,7 @@
       <c r="G265" s="125"/>
       <c r="H265" s="125"/>
       <c r="I265" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J265" s="125"/>
@@ -49123,7 +49137,7 @@
       <c r="B266" s="122"/>
       <c r="C266" s="123"/>
       <c r="D266" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E266" s="124"/>
@@ -49131,7 +49145,7 @@
       <c r="G266" s="125"/>
       <c r="H266" s="125"/>
       <c r="I266" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J266" s="125"/>
@@ -49148,7 +49162,7 @@
       <c r="B267" s="122"/>
       <c r="C267" s="123"/>
       <c r="D267" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E267" s="124"/>
@@ -49156,7 +49170,7 @@
       <c r="G267" s="125"/>
       <c r="H267" s="125"/>
       <c r="I267" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J267" s="125"/>
@@ -49173,7 +49187,7 @@
       <c r="B268" s="122"/>
       <c r="C268" s="123"/>
       <c r="D268" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E268" s="124"/>
@@ -49181,7 +49195,7 @@
       <c r="G268" s="125"/>
       <c r="H268" s="125"/>
       <c r="I268" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J268" s="125"/>
@@ -49198,7 +49212,7 @@
       <c r="B269" s="122"/>
       <c r="C269" s="123"/>
       <c r="D269" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E269" s="124"/>
@@ -49206,7 +49220,7 @@
       <c r="G269" s="125"/>
       <c r="H269" s="125"/>
       <c r="I269" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J269" s="125"/>
@@ -49223,7 +49237,7 @@
       <c r="B270" s="122"/>
       <c r="C270" s="123"/>
       <c r="D270" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E270" s="124"/>
@@ -49231,7 +49245,7 @@
       <c r="G270" s="125"/>
       <c r="H270" s="125"/>
       <c r="I270" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J270" s="125"/>
@@ -49248,7 +49262,7 @@
       <c r="B271" s="122"/>
       <c r="C271" s="123"/>
       <c r="D271" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E271" s="124"/>
@@ -49256,7 +49270,7 @@
       <c r="G271" s="125"/>
       <c r="H271" s="125"/>
       <c r="I271" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J271" s="125"/>
@@ -49273,7 +49287,7 @@
       <c r="B272" s="122"/>
       <c r="C272" s="123"/>
       <c r="D272" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E272" s="124"/>
@@ -49281,7 +49295,7 @@
       <c r="G272" s="125"/>
       <c r="H272" s="125"/>
       <c r="I272" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J272" s="125"/>
@@ -49298,7 +49312,7 @@
       <c r="B273" s="122"/>
       <c r="C273" s="123"/>
       <c r="D273" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E273" s="124"/>
@@ -49306,7 +49320,7 @@
       <c r="G273" s="125"/>
       <c r="H273" s="125"/>
       <c r="I273" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J273" s="125"/>
@@ -49323,7 +49337,7 @@
       <c r="B274" s="122"/>
       <c r="C274" s="123"/>
       <c r="D274" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E274" s="124"/>
@@ -49331,7 +49345,7 @@
       <c r="G274" s="125"/>
       <c r="H274" s="125"/>
       <c r="I274" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J274" s="125"/>
@@ -49348,7 +49362,7 @@
       <c r="B275" s="122"/>
       <c r="C275" s="123"/>
       <c r="D275" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E275" s="124"/>
@@ -49356,7 +49370,7 @@
       <c r="G275" s="125"/>
       <c r="H275" s="125"/>
       <c r="I275" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J275" s="125"/>
@@ -49373,7 +49387,7 @@
       <c r="B276" s="122"/>
       <c r="C276" s="123"/>
       <c r="D276" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E276" s="124"/>
@@ -49381,7 +49395,7 @@
       <c r="G276" s="125"/>
       <c r="H276" s="125"/>
       <c r="I276" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J276" s="125"/>
@@ -49398,7 +49412,7 @@
       <c r="B277" s="122"/>
       <c r="C277" s="123"/>
       <c r="D277" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E277" s="124"/>
@@ -49406,7 +49420,7 @@
       <c r="G277" s="125"/>
       <c r="H277" s="125"/>
       <c r="I277" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J277" s="125"/>
@@ -49423,7 +49437,7 @@
       <c r="B278" s="122"/>
       <c r="C278" s="123"/>
       <c r="D278" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E278" s="124"/>
@@ -49431,7 +49445,7 @@
       <c r="G278" s="125"/>
       <c r="H278" s="125"/>
       <c r="I278" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J278" s="125"/>
@@ -49448,7 +49462,7 @@
       <c r="B279" s="122"/>
       <c r="C279" s="123"/>
       <c r="D279" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E279" s="124"/>
@@ -49456,7 +49470,7 @@
       <c r="G279" s="125"/>
       <c r="H279" s="125"/>
       <c r="I279" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J279" s="125"/>
@@ -49473,7 +49487,7 @@
       <c r="B280" s="122"/>
       <c r="C280" s="123"/>
       <c r="D280" s="121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E280" s="124"/>
@@ -49481,7 +49495,7 @@
       <c r="G280" s="125"/>
       <c r="H280" s="125"/>
       <c r="I280" s="121" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J280" s="125"/>
@@ -49498,7 +49512,7 @@
       <c r="B281" s="122"/>
       <c r="C281" s="123"/>
       <c r="D281" s="121" t="str">
-        <f t="shared" ref="D281:D344" si="16">IF(ISBLANK($B281),"",IF(ISBLANK($F281),"未着手",IF($I281=0,"完了","作業中")))</f>
+        <f t="shared" ref="D281:D344" si="18">IF(ISBLANK($B281),"",IF(ISBLANK($F281),"未着手",IF($I281=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E281" s="124"/>
@@ -49506,7 +49520,7 @@
       <c r="G281" s="125"/>
       <c r="H281" s="125"/>
       <c r="I281" s="121" t="str">
-        <f t="shared" ref="I281:I344" ca="1" si="17">IF(ISBLANK(J281)=FALSE,OFFSET(I281,0,COUNTA(J281:O281)),"")</f>
+        <f t="shared" ref="I281:I344" ca="1" si="19">IF(ISBLANK(J281)=FALSE,OFFSET(I281,0,COUNTA(J281:O281)),"")</f>
         <v/>
       </c>
       <c r="J281" s="125"/>
@@ -49523,7 +49537,7 @@
       <c r="B282" s="122"/>
       <c r="C282" s="123"/>
       <c r="D282" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E282" s="124"/>
@@ -49531,7 +49545,7 @@
       <c r="G282" s="125"/>
       <c r="H282" s="125"/>
       <c r="I282" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J282" s="125"/>
@@ -49548,7 +49562,7 @@
       <c r="B283" s="122"/>
       <c r="C283" s="123"/>
       <c r="D283" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E283" s="124"/>
@@ -49556,7 +49570,7 @@
       <c r="G283" s="125"/>
       <c r="H283" s="125"/>
       <c r="I283" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J283" s="125"/>
@@ -49573,7 +49587,7 @@
       <c r="B284" s="122"/>
       <c r="C284" s="123"/>
       <c r="D284" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E284" s="124"/>
@@ -49581,7 +49595,7 @@
       <c r="G284" s="125"/>
       <c r="H284" s="125"/>
       <c r="I284" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J284" s="125"/>
@@ -49598,7 +49612,7 @@
       <c r="B285" s="122"/>
       <c r="C285" s="123"/>
       <c r="D285" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E285" s="124"/>
@@ -49606,7 +49620,7 @@
       <c r="G285" s="125"/>
       <c r="H285" s="125"/>
       <c r="I285" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J285" s="125"/>
@@ -49623,7 +49637,7 @@
       <c r="B286" s="122"/>
       <c r="C286" s="123"/>
       <c r="D286" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E286" s="124"/>
@@ -49631,7 +49645,7 @@
       <c r="G286" s="125"/>
       <c r="H286" s="125"/>
       <c r="I286" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J286" s="125"/>
@@ -49648,7 +49662,7 @@
       <c r="B287" s="122"/>
       <c r="C287" s="123"/>
       <c r="D287" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E287" s="124"/>
@@ -49656,7 +49670,7 @@
       <c r="G287" s="125"/>
       <c r="H287" s="125"/>
       <c r="I287" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J287" s="125"/>
@@ -49673,7 +49687,7 @@
       <c r="B288" s="122"/>
       <c r="C288" s="123"/>
       <c r="D288" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E288" s="124"/>
@@ -49681,7 +49695,7 @@
       <c r="G288" s="125"/>
       <c r="H288" s="125"/>
       <c r="I288" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J288" s="125"/>
@@ -49698,7 +49712,7 @@
       <c r="B289" s="122"/>
       <c r="C289" s="123"/>
       <c r="D289" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E289" s="124"/>
@@ -49706,7 +49720,7 @@
       <c r="G289" s="125"/>
       <c r="H289" s="125"/>
       <c r="I289" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J289" s="125"/>
@@ -49723,7 +49737,7 @@
       <c r="B290" s="122"/>
       <c r="C290" s="123"/>
       <c r="D290" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E290" s="124"/>
@@ -49731,7 +49745,7 @@
       <c r="G290" s="125"/>
       <c r="H290" s="125"/>
       <c r="I290" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J290" s="125"/>
@@ -49748,7 +49762,7 @@
       <c r="B291" s="122"/>
       <c r="C291" s="123"/>
       <c r="D291" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E291" s="124"/>
@@ -49756,7 +49770,7 @@
       <c r="G291" s="125"/>
       <c r="H291" s="125"/>
       <c r="I291" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J291" s="125"/>
@@ -49773,7 +49787,7 @@
       <c r="B292" s="122"/>
       <c r="C292" s="123"/>
       <c r="D292" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E292" s="124"/>
@@ -49781,7 +49795,7 @@
       <c r="G292" s="125"/>
       <c r="H292" s="125"/>
       <c r="I292" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J292" s="125"/>
@@ -49798,7 +49812,7 @@
       <c r="B293" s="122"/>
       <c r="C293" s="123"/>
       <c r="D293" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E293" s="124"/>
@@ -49806,7 +49820,7 @@
       <c r="G293" s="125"/>
       <c r="H293" s="125"/>
       <c r="I293" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J293" s="125"/>
@@ -49823,7 +49837,7 @@
       <c r="B294" s="122"/>
       <c r="C294" s="123"/>
       <c r="D294" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E294" s="124"/>
@@ -49831,7 +49845,7 @@
       <c r="G294" s="125"/>
       <c r="H294" s="125"/>
       <c r="I294" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J294" s="125"/>
@@ -49848,7 +49862,7 @@
       <c r="B295" s="122"/>
       <c r="C295" s="123"/>
       <c r="D295" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E295" s="124"/>
@@ -49856,7 +49870,7 @@
       <c r="G295" s="125"/>
       <c r="H295" s="125"/>
       <c r="I295" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J295" s="125"/>
@@ -49873,7 +49887,7 @@
       <c r="B296" s="122"/>
       <c r="C296" s="123"/>
       <c r="D296" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E296" s="124"/>
@@ -49881,7 +49895,7 @@
       <c r="G296" s="125"/>
       <c r="H296" s="125"/>
       <c r="I296" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J296" s="125"/>
@@ -49898,7 +49912,7 @@
       <c r="B297" s="122"/>
       <c r="C297" s="123"/>
       <c r="D297" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E297" s="124"/>
@@ -49906,7 +49920,7 @@
       <c r="G297" s="125"/>
       <c r="H297" s="125"/>
       <c r="I297" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J297" s="125"/>
@@ -49923,7 +49937,7 @@
       <c r="B298" s="122"/>
       <c r="C298" s="123"/>
       <c r="D298" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E298" s="124"/>
@@ -49931,7 +49945,7 @@
       <c r="G298" s="125"/>
       <c r="H298" s="125"/>
       <c r="I298" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J298" s="125"/>
@@ -49948,7 +49962,7 @@
       <c r="B299" s="122"/>
       <c r="C299" s="123"/>
       <c r="D299" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E299" s="124"/>
@@ -49956,7 +49970,7 @@
       <c r="G299" s="125"/>
       <c r="H299" s="125"/>
       <c r="I299" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J299" s="125"/>
@@ -49973,7 +49987,7 @@
       <c r="B300" s="122"/>
       <c r="C300" s="123"/>
       <c r="D300" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E300" s="124"/>
@@ -49981,7 +49995,7 @@
       <c r="G300" s="125"/>
       <c r="H300" s="125"/>
       <c r="I300" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J300" s="125"/>
@@ -49998,7 +50012,7 @@
       <c r="B301" s="122"/>
       <c r="C301" s="123"/>
       <c r="D301" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E301" s="124"/>
@@ -50006,7 +50020,7 @@
       <c r="G301" s="125"/>
       <c r="H301" s="125"/>
       <c r="I301" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J301" s="125"/>
@@ -50023,7 +50037,7 @@
       <c r="B302" s="122"/>
       <c r="C302" s="123"/>
       <c r="D302" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E302" s="124"/>
@@ -50031,7 +50045,7 @@
       <c r="G302" s="125"/>
       <c r="H302" s="125"/>
       <c r="I302" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J302" s="125"/>
@@ -50048,7 +50062,7 @@
       <c r="B303" s="122"/>
       <c r="C303" s="123"/>
       <c r="D303" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E303" s="124"/>
@@ -50056,7 +50070,7 @@
       <c r="G303" s="125"/>
       <c r="H303" s="125"/>
       <c r="I303" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J303" s="125"/>
@@ -50073,7 +50087,7 @@
       <c r="B304" s="122"/>
       <c r="C304" s="123"/>
       <c r="D304" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E304" s="124"/>
@@ -50081,7 +50095,7 @@
       <c r="G304" s="125"/>
       <c r="H304" s="125"/>
       <c r="I304" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J304" s="125"/>
@@ -50098,7 +50112,7 @@
       <c r="B305" s="122"/>
       <c r="C305" s="123"/>
       <c r="D305" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E305" s="124"/>
@@ -50106,7 +50120,7 @@
       <c r="G305" s="125"/>
       <c r="H305" s="125"/>
       <c r="I305" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J305" s="125"/>
@@ -50123,7 +50137,7 @@
       <c r="B306" s="122"/>
       <c r="C306" s="123"/>
       <c r="D306" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E306" s="124"/>
@@ -50131,7 +50145,7 @@
       <c r="G306" s="125"/>
       <c r="H306" s="125"/>
       <c r="I306" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J306" s="125"/>
@@ -50148,7 +50162,7 @@
       <c r="B307" s="122"/>
       <c r="C307" s="123"/>
       <c r="D307" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E307" s="124"/>
@@ -50156,7 +50170,7 @@
       <c r="G307" s="125"/>
       <c r="H307" s="125"/>
       <c r="I307" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J307" s="125"/>
@@ -50173,7 +50187,7 @@
       <c r="B308" s="122"/>
       <c r="C308" s="123"/>
       <c r="D308" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E308" s="124"/>
@@ -50181,7 +50195,7 @@
       <c r="G308" s="125"/>
       <c r="H308" s="125"/>
       <c r="I308" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J308" s="125"/>
@@ -50198,7 +50212,7 @@
       <c r="B309" s="122"/>
       <c r="C309" s="123"/>
       <c r="D309" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E309" s="124"/>
@@ -50206,7 +50220,7 @@
       <c r="G309" s="125"/>
       <c r="H309" s="125"/>
       <c r="I309" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J309" s="125"/>
@@ -50223,7 +50237,7 @@
       <c r="B310" s="122"/>
       <c r="C310" s="123"/>
       <c r="D310" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E310" s="124"/>
@@ -50231,7 +50245,7 @@
       <c r="G310" s="125"/>
       <c r="H310" s="125"/>
       <c r="I310" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J310" s="125"/>
@@ -50248,7 +50262,7 @@
       <c r="B311" s="122"/>
       <c r="C311" s="123"/>
       <c r="D311" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E311" s="124"/>
@@ -50256,7 +50270,7 @@
       <c r="G311" s="125"/>
       <c r="H311" s="125"/>
       <c r="I311" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J311" s="125"/>
@@ -50273,7 +50287,7 @@
       <c r="B312" s="122"/>
       <c r="C312" s="123"/>
       <c r="D312" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E312" s="124"/>
@@ -50281,7 +50295,7 @@
       <c r="G312" s="125"/>
       <c r="H312" s="125"/>
       <c r="I312" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J312" s="125"/>
@@ -50298,7 +50312,7 @@
       <c r="B313" s="122"/>
       <c r="C313" s="123"/>
       <c r="D313" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E313" s="124"/>
@@ -50306,7 +50320,7 @@
       <c r="G313" s="125"/>
       <c r="H313" s="125"/>
       <c r="I313" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J313" s="125"/>
@@ -50323,7 +50337,7 @@
       <c r="B314" s="122"/>
       <c r="C314" s="123"/>
       <c r="D314" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E314" s="124"/>
@@ -50331,7 +50345,7 @@
       <c r="G314" s="125"/>
       <c r="H314" s="125"/>
       <c r="I314" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J314" s="125"/>
@@ -50348,7 +50362,7 @@
       <c r="B315" s="122"/>
       <c r="C315" s="123"/>
       <c r="D315" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E315" s="124"/>
@@ -50356,7 +50370,7 @@
       <c r="G315" s="125"/>
       <c r="H315" s="125"/>
       <c r="I315" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J315" s="125"/>
@@ -50373,7 +50387,7 @@
       <c r="B316" s="122"/>
       <c r="C316" s="123"/>
       <c r="D316" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E316" s="124"/>
@@ -50381,7 +50395,7 @@
       <c r="G316" s="125"/>
       <c r="H316" s="125"/>
       <c r="I316" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J316" s="125"/>
@@ -50398,7 +50412,7 @@
       <c r="B317" s="122"/>
       <c r="C317" s="123"/>
       <c r="D317" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E317" s="124"/>
@@ -50406,7 +50420,7 @@
       <c r="G317" s="125"/>
       <c r="H317" s="125"/>
       <c r="I317" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J317" s="125"/>
@@ -50423,7 +50437,7 @@
       <c r="B318" s="122"/>
       <c r="C318" s="123"/>
       <c r="D318" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E318" s="124"/>
@@ -50431,7 +50445,7 @@
       <c r="G318" s="125"/>
       <c r="H318" s="125"/>
       <c r="I318" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J318" s="125"/>
@@ -50448,7 +50462,7 @@
       <c r="B319" s="122"/>
       <c r="C319" s="123"/>
       <c r="D319" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E319" s="124"/>
@@ -50456,7 +50470,7 @@
       <c r="G319" s="125"/>
       <c r="H319" s="125"/>
       <c r="I319" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J319" s="125"/>
@@ -50473,7 +50487,7 @@
       <c r="B320" s="122"/>
       <c r="C320" s="123"/>
       <c r="D320" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E320" s="124"/>
@@ -50481,7 +50495,7 @@
       <c r="G320" s="125"/>
       <c r="H320" s="125"/>
       <c r="I320" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J320" s="125"/>
@@ -50498,7 +50512,7 @@
       <c r="B321" s="122"/>
       <c r="C321" s="123"/>
       <c r="D321" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E321" s="124"/>
@@ -50506,7 +50520,7 @@
       <c r="G321" s="125"/>
       <c r="H321" s="125"/>
       <c r="I321" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J321" s="125"/>
@@ -50523,7 +50537,7 @@
       <c r="B322" s="122"/>
       <c r="C322" s="123"/>
       <c r="D322" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E322" s="124"/>
@@ -50531,7 +50545,7 @@
       <c r="G322" s="125"/>
       <c r="H322" s="125"/>
       <c r="I322" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J322" s="125"/>
@@ -50548,7 +50562,7 @@
       <c r="B323" s="122"/>
       <c r="C323" s="123"/>
       <c r="D323" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E323" s="124"/>
@@ -50556,7 +50570,7 @@
       <c r="G323" s="125"/>
       <c r="H323" s="125"/>
       <c r="I323" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J323" s="125"/>
@@ -50573,7 +50587,7 @@
       <c r="B324" s="122"/>
       <c r="C324" s="123"/>
       <c r="D324" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E324" s="124"/>
@@ -50581,7 +50595,7 @@
       <c r="G324" s="125"/>
       <c r="H324" s="125"/>
       <c r="I324" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J324" s="125"/>
@@ -50598,7 +50612,7 @@
       <c r="B325" s="122"/>
       <c r="C325" s="123"/>
       <c r="D325" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E325" s="124"/>
@@ -50606,7 +50620,7 @@
       <c r="G325" s="125"/>
       <c r="H325" s="125"/>
       <c r="I325" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J325" s="125"/>
@@ -50623,7 +50637,7 @@
       <c r="B326" s="122"/>
       <c r="C326" s="123"/>
       <c r="D326" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E326" s="124"/>
@@ -50631,7 +50645,7 @@
       <c r="G326" s="125"/>
       <c r="H326" s="125"/>
       <c r="I326" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J326" s="125"/>
@@ -50648,7 +50662,7 @@
       <c r="B327" s="122"/>
       <c r="C327" s="123"/>
       <c r="D327" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E327" s="124"/>
@@ -50656,7 +50670,7 @@
       <c r="G327" s="125"/>
       <c r="H327" s="125"/>
       <c r="I327" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J327" s="125"/>
@@ -50673,7 +50687,7 @@
       <c r="B328" s="122"/>
       <c r="C328" s="123"/>
       <c r="D328" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E328" s="124"/>
@@ -50681,7 +50695,7 @@
       <c r="G328" s="125"/>
       <c r="H328" s="125"/>
       <c r="I328" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J328" s="125"/>
@@ -50698,7 +50712,7 @@
       <c r="B329" s="122"/>
       <c r="C329" s="123"/>
       <c r="D329" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E329" s="124"/>
@@ -50706,7 +50720,7 @@
       <c r="G329" s="125"/>
       <c r="H329" s="125"/>
       <c r="I329" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J329" s="125"/>
@@ -50723,7 +50737,7 @@
       <c r="B330" s="122"/>
       <c r="C330" s="123"/>
       <c r="D330" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E330" s="124"/>
@@ -50731,7 +50745,7 @@
       <c r="G330" s="125"/>
       <c r="H330" s="125"/>
       <c r="I330" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J330" s="125"/>
@@ -50748,7 +50762,7 @@
       <c r="B331" s="122"/>
       <c r="C331" s="123"/>
       <c r="D331" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E331" s="124"/>
@@ -50756,7 +50770,7 @@
       <c r="G331" s="125"/>
       <c r="H331" s="125"/>
       <c r="I331" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J331" s="125"/>
@@ -50773,7 +50787,7 @@
       <c r="B332" s="122"/>
       <c r="C332" s="123"/>
       <c r="D332" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E332" s="124"/>
@@ -50781,7 +50795,7 @@
       <c r="G332" s="125"/>
       <c r="H332" s="125"/>
       <c r="I332" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J332" s="125"/>
@@ -50798,7 +50812,7 @@
       <c r="B333" s="122"/>
       <c r="C333" s="123"/>
       <c r="D333" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E333" s="124"/>
@@ -50806,7 +50820,7 @@
       <c r="G333" s="125"/>
       <c r="H333" s="125"/>
       <c r="I333" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J333" s="125"/>
@@ -50823,7 +50837,7 @@
       <c r="B334" s="122"/>
       <c r="C334" s="123"/>
       <c r="D334" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E334" s="124"/>
@@ -50831,7 +50845,7 @@
       <c r="G334" s="125"/>
       <c r="H334" s="125"/>
       <c r="I334" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J334" s="125"/>
@@ -50848,7 +50862,7 @@
       <c r="B335" s="122"/>
       <c r="C335" s="123"/>
       <c r="D335" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E335" s="124"/>
@@ -50856,7 +50870,7 @@
       <c r="G335" s="125"/>
       <c r="H335" s="125"/>
       <c r="I335" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J335" s="125"/>
@@ -50873,7 +50887,7 @@
       <c r="B336" s="122"/>
       <c r="C336" s="123"/>
       <c r="D336" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E336" s="124"/>
@@ -50881,7 +50895,7 @@
       <c r="G336" s="125"/>
       <c r="H336" s="125"/>
       <c r="I336" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J336" s="125"/>
@@ -50898,7 +50912,7 @@
       <c r="B337" s="122"/>
       <c r="C337" s="123"/>
       <c r="D337" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E337" s="124"/>
@@ -50906,7 +50920,7 @@
       <c r="G337" s="125"/>
       <c r="H337" s="125"/>
       <c r="I337" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J337" s="125"/>
@@ -50923,7 +50937,7 @@
       <c r="B338" s="122"/>
       <c r="C338" s="123"/>
       <c r="D338" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E338" s="124"/>
@@ -50931,7 +50945,7 @@
       <c r="G338" s="125"/>
       <c r="H338" s="125"/>
       <c r="I338" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J338" s="125"/>
@@ -50948,7 +50962,7 @@
       <c r="B339" s="122"/>
       <c r="C339" s="123"/>
       <c r="D339" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E339" s="124"/>
@@ -50956,7 +50970,7 @@
       <c r="G339" s="125"/>
       <c r="H339" s="125"/>
       <c r="I339" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J339" s="125"/>
@@ -50973,7 +50987,7 @@
       <c r="B340" s="122"/>
       <c r="C340" s="123"/>
       <c r="D340" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E340" s="124"/>
@@ -50981,7 +50995,7 @@
       <c r="G340" s="125"/>
       <c r="H340" s="125"/>
       <c r="I340" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J340" s="125"/>
@@ -50998,7 +51012,7 @@
       <c r="B341" s="122"/>
       <c r="C341" s="123"/>
       <c r="D341" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E341" s="124"/>
@@ -51006,7 +51020,7 @@
       <c r="G341" s="125"/>
       <c r="H341" s="125"/>
       <c r="I341" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J341" s="125"/>
@@ -51023,7 +51037,7 @@
       <c r="B342" s="122"/>
       <c r="C342" s="123"/>
       <c r="D342" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E342" s="124"/>
@@ -51031,7 +51045,7 @@
       <c r="G342" s="125"/>
       <c r="H342" s="125"/>
       <c r="I342" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J342" s="125"/>
@@ -51048,7 +51062,7 @@
       <c r="B343" s="122"/>
       <c r="C343" s="123"/>
       <c r="D343" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E343" s="124"/>
@@ -51056,7 +51070,7 @@
       <c r="G343" s="125"/>
       <c r="H343" s="125"/>
       <c r="I343" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J343" s="125"/>
@@ -51073,7 +51087,7 @@
       <c r="B344" s="122"/>
       <c r="C344" s="123"/>
       <c r="D344" s="121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E344" s="124"/>
@@ -51081,7 +51095,7 @@
       <c r="G344" s="125"/>
       <c r="H344" s="125"/>
       <c r="I344" s="121" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J344" s="125"/>
@@ -51098,7 +51112,7 @@
       <c r="B345" s="122"/>
       <c r="C345" s="123"/>
       <c r="D345" s="121" t="str">
-        <f t="shared" ref="D345:D400" si="18">IF(ISBLANK($B345),"",IF(ISBLANK($F345),"未着手",IF($I345=0,"完了","作業中")))</f>
+        <f t="shared" ref="D345:D400" si="20">IF(ISBLANK($B345),"",IF(ISBLANK($F345),"未着手",IF($I345=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E345" s="124"/>
@@ -51106,7 +51120,7 @@
       <c r="G345" s="125"/>
       <c r="H345" s="125"/>
       <c r="I345" s="121" t="str">
-        <f t="shared" ref="I345:I400" ca="1" si="19">IF(ISBLANK(J345)=FALSE,OFFSET(I345,0,COUNTA(J345:O345)),"")</f>
+        <f t="shared" ref="I345:I400" ca="1" si="21">IF(ISBLANK(J345)=FALSE,OFFSET(I345,0,COUNTA(J345:O345)),"")</f>
         <v/>
       </c>
       <c r="J345" s="125"/>
@@ -51123,7 +51137,7 @@
       <c r="B346" s="122"/>
       <c r="C346" s="123"/>
       <c r="D346" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E346" s="124"/>
@@ -51131,7 +51145,7 @@
       <c r="G346" s="125"/>
       <c r="H346" s="125"/>
       <c r="I346" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J346" s="125"/>
@@ -51148,7 +51162,7 @@
       <c r="B347" s="122"/>
       <c r="C347" s="123"/>
       <c r="D347" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E347" s="124"/>
@@ -51156,7 +51170,7 @@
       <c r="G347" s="125"/>
       <c r="H347" s="125"/>
       <c r="I347" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J347" s="125"/>
@@ -51173,7 +51187,7 @@
       <c r="B348" s="122"/>
       <c r="C348" s="123"/>
       <c r="D348" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E348" s="124"/>
@@ -51181,7 +51195,7 @@
       <c r="G348" s="125"/>
       <c r="H348" s="125"/>
       <c r="I348" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J348" s="125"/>
@@ -51198,7 +51212,7 @@
       <c r="B349" s="122"/>
       <c r="C349" s="123"/>
       <c r="D349" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E349" s="124"/>
@@ -51206,7 +51220,7 @@
       <c r="G349" s="125"/>
       <c r="H349" s="125"/>
       <c r="I349" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J349" s="125"/>
@@ -51223,7 +51237,7 @@
       <c r="B350" s="122"/>
       <c r="C350" s="123"/>
       <c r="D350" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E350" s="124"/>
@@ -51231,7 +51245,7 @@
       <c r="G350" s="125"/>
       <c r="H350" s="125"/>
       <c r="I350" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J350" s="125"/>
@@ -51248,7 +51262,7 @@
       <c r="B351" s="122"/>
       <c r="C351" s="123"/>
       <c r="D351" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E351" s="124"/>
@@ -51256,7 +51270,7 @@
       <c r="G351" s="125"/>
       <c r="H351" s="125"/>
       <c r="I351" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J351" s="125"/>
@@ -51273,7 +51287,7 @@
       <c r="B352" s="122"/>
       <c r="C352" s="123"/>
       <c r="D352" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E352" s="124"/>
@@ -51281,7 +51295,7 @@
       <c r="G352" s="125"/>
       <c r="H352" s="125"/>
       <c r="I352" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J352" s="125"/>
@@ -51298,7 +51312,7 @@
       <c r="B353" s="122"/>
       <c r="C353" s="123"/>
       <c r="D353" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E353" s="124"/>
@@ -51306,7 +51320,7 @@
       <c r="G353" s="125"/>
       <c r="H353" s="125"/>
       <c r="I353" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J353" s="125"/>
@@ -51323,7 +51337,7 @@
       <c r="B354" s="122"/>
       <c r="C354" s="123"/>
       <c r="D354" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E354" s="124"/>
@@ -51331,7 +51345,7 @@
       <c r="G354" s="125"/>
       <c r="H354" s="125"/>
       <c r="I354" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J354" s="125"/>
@@ -51348,7 +51362,7 @@
       <c r="B355" s="122"/>
       <c r="C355" s="123"/>
       <c r="D355" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E355" s="124"/>
@@ -51356,7 +51370,7 @@
       <c r="G355" s="125"/>
       <c r="H355" s="125"/>
       <c r="I355" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J355" s="125"/>
@@ -51373,7 +51387,7 @@
       <c r="B356" s="122"/>
       <c r="C356" s="123"/>
       <c r="D356" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E356" s="124"/>
@@ -51381,7 +51395,7 @@
       <c r="G356" s="125"/>
       <c r="H356" s="125"/>
       <c r="I356" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J356" s="125"/>
@@ -51398,7 +51412,7 @@
       <c r="B357" s="122"/>
       <c r="C357" s="123"/>
       <c r="D357" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E357" s="124"/>
@@ -51406,7 +51420,7 @@
       <c r="G357" s="125"/>
       <c r="H357" s="125"/>
       <c r="I357" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J357" s="125"/>
@@ -51423,7 +51437,7 @@
       <c r="B358" s="122"/>
       <c r="C358" s="123"/>
       <c r="D358" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E358" s="124"/>
@@ -51431,7 +51445,7 @@
       <c r="G358" s="125"/>
       <c r="H358" s="125"/>
       <c r="I358" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J358" s="125"/>
@@ -51448,7 +51462,7 @@
       <c r="B359" s="122"/>
       <c r="C359" s="123"/>
       <c r="D359" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E359" s="124"/>
@@ -51456,7 +51470,7 @@
       <c r="G359" s="125"/>
       <c r="H359" s="125"/>
       <c r="I359" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J359" s="125"/>
@@ -51473,7 +51487,7 @@
       <c r="B360" s="122"/>
       <c r="C360" s="123"/>
       <c r="D360" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E360" s="124"/>
@@ -51481,7 +51495,7 @@
       <c r="G360" s="125"/>
       <c r="H360" s="125"/>
       <c r="I360" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J360" s="125"/>
@@ -51498,7 +51512,7 @@
       <c r="B361" s="122"/>
       <c r="C361" s="123"/>
       <c r="D361" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E361" s="124"/>
@@ -51506,7 +51520,7 @@
       <c r="G361" s="125"/>
       <c r="H361" s="125"/>
       <c r="I361" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J361" s="125"/>
@@ -51523,7 +51537,7 @@
       <c r="B362" s="122"/>
       <c r="C362" s="123"/>
       <c r="D362" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E362" s="124"/>
@@ -51531,7 +51545,7 @@
       <c r="G362" s="125"/>
       <c r="H362" s="125"/>
       <c r="I362" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J362" s="125"/>
@@ -51548,7 +51562,7 @@
       <c r="B363" s="122"/>
       <c r="C363" s="123"/>
       <c r="D363" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E363" s="124"/>
@@ -51556,7 +51570,7 @@
       <c r="G363" s="125"/>
       <c r="H363" s="125"/>
       <c r="I363" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J363" s="125"/>
@@ -51573,7 +51587,7 @@
       <c r="B364" s="122"/>
       <c r="C364" s="123"/>
       <c r="D364" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E364" s="124"/>
@@ -51581,7 +51595,7 @@
       <c r="G364" s="125"/>
       <c r="H364" s="125"/>
       <c r="I364" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J364" s="125"/>
@@ -51598,7 +51612,7 @@
       <c r="B365" s="122"/>
       <c r="C365" s="123"/>
       <c r="D365" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E365" s="124"/>
@@ -51606,7 +51620,7 @@
       <c r="G365" s="125"/>
       <c r="H365" s="125"/>
       <c r="I365" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J365" s="125"/>
@@ -51623,7 +51637,7 @@
       <c r="B366" s="122"/>
       <c r="C366" s="123"/>
       <c r="D366" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E366" s="124"/>
@@ -51631,7 +51645,7 @@
       <c r="G366" s="125"/>
       <c r="H366" s="125"/>
       <c r="I366" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J366" s="125"/>
@@ -51648,7 +51662,7 @@
       <c r="B367" s="122"/>
       <c r="C367" s="123"/>
       <c r="D367" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E367" s="124"/>
@@ -51656,7 +51670,7 @@
       <c r="G367" s="125"/>
       <c r="H367" s="125"/>
       <c r="I367" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J367" s="125"/>
@@ -51673,7 +51687,7 @@
       <c r="B368" s="122"/>
       <c r="C368" s="123"/>
       <c r="D368" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E368" s="124"/>
@@ -51681,7 +51695,7 @@
       <c r="G368" s="125"/>
       <c r="H368" s="125"/>
       <c r="I368" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J368" s="125"/>
@@ -51698,7 +51712,7 @@
       <c r="B369" s="122"/>
       <c r="C369" s="123"/>
       <c r="D369" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E369" s="124"/>
@@ -51706,7 +51720,7 @@
       <c r="G369" s="125"/>
       <c r="H369" s="125"/>
       <c r="I369" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J369" s="125"/>
@@ -51723,7 +51737,7 @@
       <c r="B370" s="122"/>
       <c r="C370" s="123"/>
       <c r="D370" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E370" s="124"/>
@@ -51731,7 +51745,7 @@
       <c r="G370" s="125"/>
       <c r="H370" s="125"/>
       <c r="I370" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J370" s="125"/>
@@ -51748,7 +51762,7 @@
       <c r="B371" s="122"/>
       <c r="C371" s="123"/>
       <c r="D371" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E371" s="124"/>
@@ -51756,7 +51770,7 @@
       <c r="G371" s="125"/>
       <c r="H371" s="125"/>
       <c r="I371" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J371" s="125"/>
@@ -51773,7 +51787,7 @@
       <c r="B372" s="122"/>
       <c r="C372" s="123"/>
       <c r="D372" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E372" s="124"/>
@@ -51781,7 +51795,7 @@
       <c r="G372" s="125"/>
       <c r="H372" s="125"/>
       <c r="I372" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J372" s="125"/>
@@ -51798,7 +51812,7 @@
       <c r="B373" s="122"/>
       <c r="C373" s="123"/>
       <c r="D373" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E373" s="124"/>
@@ -51806,7 +51820,7 @@
       <c r="G373" s="125"/>
       <c r="H373" s="125"/>
       <c r="I373" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J373" s="125"/>
@@ -51823,7 +51837,7 @@
       <c r="B374" s="122"/>
       <c r="C374" s="123"/>
       <c r="D374" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E374" s="124"/>
@@ -51831,7 +51845,7 @@
       <c r="G374" s="125"/>
       <c r="H374" s="125"/>
       <c r="I374" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J374" s="125"/>
@@ -51848,7 +51862,7 @@
       <c r="B375" s="122"/>
       <c r="C375" s="123"/>
       <c r="D375" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E375" s="124"/>
@@ -51856,7 +51870,7 @@
       <c r="G375" s="125"/>
       <c r="H375" s="125"/>
       <c r="I375" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J375" s="125"/>
@@ -51873,7 +51887,7 @@
       <c r="B376" s="122"/>
       <c r="C376" s="123"/>
       <c r="D376" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E376" s="124"/>
@@ -51881,7 +51895,7 @@
       <c r="G376" s="125"/>
       <c r="H376" s="125"/>
       <c r="I376" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J376" s="125"/>
@@ -51898,7 +51912,7 @@
       <c r="B377" s="122"/>
       <c r="C377" s="123"/>
       <c r="D377" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E377" s="124"/>
@@ -51906,7 +51920,7 @@
       <c r="G377" s="125"/>
       <c r="H377" s="125"/>
       <c r="I377" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J377" s="125"/>
@@ -51923,7 +51937,7 @@
       <c r="B378" s="122"/>
       <c r="C378" s="123"/>
       <c r="D378" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E378" s="124"/>
@@ -51931,7 +51945,7 @@
       <c r="G378" s="125"/>
       <c r="H378" s="125"/>
       <c r="I378" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J378" s="125"/>
@@ -51948,7 +51962,7 @@
       <c r="B379" s="122"/>
       <c r="C379" s="123"/>
       <c r="D379" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E379" s="124"/>
@@ -51956,7 +51970,7 @@
       <c r="G379" s="125"/>
       <c r="H379" s="125"/>
       <c r="I379" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J379" s="125"/>
@@ -51973,7 +51987,7 @@
       <c r="B380" s="122"/>
       <c r="C380" s="123"/>
       <c r="D380" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E380" s="124"/>
@@ -51981,7 +51995,7 @@
       <c r="G380" s="125"/>
       <c r="H380" s="125"/>
       <c r="I380" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J380" s="125"/>
@@ -51998,7 +52012,7 @@
       <c r="B381" s="122"/>
       <c r="C381" s="123"/>
       <c r="D381" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E381" s="124"/>
@@ -52006,7 +52020,7 @@
       <c r="G381" s="125"/>
       <c r="H381" s="125"/>
       <c r="I381" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J381" s="125"/>
@@ -52023,7 +52037,7 @@
       <c r="B382" s="122"/>
       <c r="C382" s="123"/>
       <c r="D382" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E382" s="124"/>
@@ -52031,7 +52045,7 @@
       <c r="G382" s="125"/>
       <c r="H382" s="125"/>
       <c r="I382" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J382" s="125"/>
@@ -52048,7 +52062,7 @@
       <c r="B383" s="122"/>
       <c r="C383" s="123"/>
       <c r="D383" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E383" s="124"/>
@@ -52056,7 +52070,7 @@
       <c r="G383" s="125"/>
       <c r="H383" s="125"/>
       <c r="I383" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J383" s="125"/>
@@ -52073,7 +52087,7 @@
       <c r="B384" s="122"/>
       <c r="C384" s="123"/>
       <c r="D384" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E384" s="124"/>
@@ -52081,7 +52095,7 @@
       <c r="G384" s="125"/>
       <c r="H384" s="125"/>
       <c r="I384" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J384" s="125"/>
@@ -52098,7 +52112,7 @@
       <c r="B385" s="122"/>
       <c r="C385" s="123"/>
       <c r="D385" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E385" s="124"/>
@@ -52106,7 +52120,7 @@
       <c r="G385" s="125"/>
       <c r="H385" s="125"/>
       <c r="I385" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J385" s="125"/>
@@ -52123,7 +52137,7 @@
       <c r="B386" s="122"/>
       <c r="C386" s="123"/>
       <c r="D386" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E386" s="124"/>
@@ -52131,7 +52145,7 @@
       <c r="G386" s="125"/>
       <c r="H386" s="125"/>
       <c r="I386" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J386" s="125"/>
@@ -52148,7 +52162,7 @@
       <c r="B387" s="122"/>
       <c r="C387" s="123"/>
       <c r="D387" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E387" s="124"/>
@@ -52156,7 +52170,7 @@
       <c r="G387" s="125"/>
       <c r="H387" s="125"/>
       <c r="I387" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J387" s="125"/>
@@ -52173,7 +52187,7 @@
       <c r="B388" s="122"/>
       <c r="C388" s="123"/>
       <c r="D388" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E388" s="124"/>
@@ -52181,7 +52195,7 @@
       <c r="G388" s="125"/>
       <c r="H388" s="125"/>
       <c r="I388" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J388" s="125"/>
@@ -52198,7 +52212,7 @@
       <c r="B389" s="122"/>
       <c r="C389" s="123"/>
       <c r="D389" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E389" s="124"/>
@@ -52206,7 +52220,7 @@
       <c r="G389" s="125"/>
       <c r="H389" s="125"/>
       <c r="I389" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J389" s="125"/>
@@ -52223,7 +52237,7 @@
       <c r="B390" s="122"/>
       <c r="C390" s="123"/>
       <c r="D390" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E390" s="124"/>
@@ -52231,7 +52245,7 @@
       <c r="G390" s="125"/>
       <c r="H390" s="125"/>
       <c r="I390" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J390" s="125"/>
@@ -52248,7 +52262,7 @@
       <c r="B391" s="122"/>
       <c r="C391" s="123"/>
       <c r="D391" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E391" s="124"/>
@@ -52256,7 +52270,7 @@
       <c r="G391" s="125"/>
       <c r="H391" s="125"/>
       <c r="I391" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J391" s="125"/>
@@ -52273,7 +52287,7 @@
       <c r="B392" s="122"/>
       <c r="C392" s="123"/>
       <c r="D392" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E392" s="124"/>
@@ -52281,7 +52295,7 @@
       <c r="G392" s="125"/>
       <c r="H392" s="125"/>
       <c r="I392" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J392" s="125"/>
@@ -52298,7 +52312,7 @@
       <c r="B393" s="122"/>
       <c r="C393" s="123"/>
       <c r="D393" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E393" s="124"/>
@@ -52306,7 +52320,7 @@
       <c r="G393" s="125"/>
       <c r="H393" s="125"/>
       <c r="I393" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J393" s="125"/>
@@ -52323,7 +52337,7 @@
       <c r="B394" s="122"/>
       <c r="C394" s="123"/>
       <c r="D394" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E394" s="124"/>
@@ -52331,7 +52345,7 @@
       <c r="G394" s="125"/>
       <c r="H394" s="125"/>
       <c r="I394" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J394" s="125"/>
@@ -52348,7 +52362,7 @@
       <c r="B395" s="122"/>
       <c r="C395" s="123"/>
       <c r="D395" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E395" s="124"/>
@@ -52356,7 +52370,7 @@
       <c r="G395" s="125"/>
       <c r="H395" s="125"/>
       <c r="I395" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J395" s="125"/>
@@ -52373,7 +52387,7 @@
       <c r="B396" s="122"/>
       <c r="C396" s="123"/>
       <c r="D396" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E396" s="124"/>
@@ -52381,7 +52395,7 @@
       <c r="G396" s="125"/>
       <c r="H396" s="125"/>
       <c r="I396" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J396" s="125"/>
@@ -52398,7 +52412,7 @@
       <c r="B397" s="122"/>
       <c r="C397" s="123"/>
       <c r="D397" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E397" s="124"/>
@@ -52406,7 +52420,7 @@
       <c r="G397" s="125"/>
       <c r="H397" s="125"/>
       <c r="I397" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J397" s="125"/>
@@ -52423,7 +52437,7 @@
       <c r="B398" s="122"/>
       <c r="C398" s="123"/>
       <c r="D398" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E398" s="124"/>
@@ -52431,7 +52445,7 @@
       <c r="G398" s="125"/>
       <c r="H398" s="125"/>
       <c r="I398" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J398" s="125"/>
@@ -52448,7 +52462,7 @@
       <c r="B399" s="122"/>
       <c r="C399" s="123"/>
       <c r="D399" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E399" s="124"/>
@@ -52456,7 +52470,7 @@
       <c r="G399" s="125"/>
       <c r="H399" s="125"/>
       <c r="I399" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J399" s="125"/>
@@ -52473,7 +52487,7 @@
       <c r="B400" s="122"/>
       <c r="C400" s="123"/>
       <c r="D400" s="121" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E400" s="124"/>
@@ -52481,7 +52495,7 @@
       <c r="G400" s="125"/>
       <c r="H400" s="125"/>
       <c r="I400" s="121" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J400" s="125"/>
